--- a/tests/test_data/test_data.xlsx
+++ b/tests/test_data/test_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Home Economics\Automobile Matters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samueldy\Box Sync\Coursework\MECHENG 599-006\Projects\course-project\pov_mileage_stats\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2052A965-54FF-4D90-AE72-945633775EC8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{4EAEBC70-2876-42F4-A6D5-02178DF92E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,13 +34,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Trip A</t>
+    <t>Miles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,61 +76,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -468,10 +413,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B800633C-4054-4545-85F9-0C41D439753B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8498,7 +8445,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1096">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_data/test_data.xlsx
+++ b/tests/test_data/test_data.xlsx
@@ -70,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,11 +417,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -431,7 +433,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>42567</v>
       </c>
       <c r="B2">
@@ -439,7 +441,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>42569</v>
       </c>
       <c r="B3">
@@ -447,7 +449,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>42570</v>
       </c>
       <c r="B4">
@@ -455,7 +457,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>42571</v>
       </c>
       <c r="B5">
@@ -463,7 +465,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>42572</v>
       </c>
       <c r="B6">
@@ -471,7 +473,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>42573</v>
       </c>
       <c r="B7">
@@ -479,7 +481,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>42574</v>
       </c>
       <c r="B8">
@@ -487,7 +489,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>42575</v>
       </c>
       <c r="B9">
@@ -495,7 +497,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>42576</v>
       </c>
       <c r="B10">
@@ -503,7 +505,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>42577</v>
       </c>
       <c r="B11">
@@ -511,7 +513,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>42578</v>
       </c>
       <c r="B12">
@@ -519,7 +521,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>42579</v>
       </c>
       <c r="B13">
@@ -527,7 +529,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>42580</v>
       </c>
       <c r="B14">
@@ -535,7 +537,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>42581</v>
       </c>
       <c r="B15">
@@ -543,7 +545,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>42582</v>
       </c>
       <c r="B16">
@@ -551,7 +553,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>42583</v>
       </c>
       <c r="B17">
@@ -559,7 +561,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>42584</v>
       </c>
       <c r="B18">
@@ -567,7 +569,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>42585</v>
       </c>
       <c r="B19">
@@ -575,7 +577,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>42586</v>
       </c>
       <c r="B20">
@@ -583,7 +585,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>42587</v>
       </c>
       <c r="B21">
@@ -591,7 +593,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>42588</v>
       </c>
       <c r="B22">
@@ -599,7 +601,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>42589</v>
       </c>
       <c r="B23">
@@ -607,7 +609,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>42590</v>
       </c>
       <c r="B24">
@@ -615,7 +617,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>42591</v>
       </c>
       <c r="B25">
@@ -623,7 +625,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>42592</v>
       </c>
       <c r="B26">
@@ -631,7 +633,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>42593</v>
       </c>
       <c r="B27">
@@ -639,7 +641,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>42594</v>
       </c>
       <c r="B28">
@@ -647,7 +649,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>42595</v>
       </c>
       <c r="B29">
@@ -655,7 +657,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>42596</v>
       </c>
       <c r="B30">
@@ -663,7 +665,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>42597</v>
       </c>
       <c r="B31">
@@ -671,7 +673,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>42598</v>
       </c>
       <c r="B32">
@@ -679,7 +681,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>42599</v>
       </c>
       <c r="B33">
@@ -687,7 +689,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>42600</v>
       </c>
       <c r="B34">
@@ -695,7 +697,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>42601</v>
       </c>
       <c r="B35">
@@ -703,7 +705,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>42602</v>
       </c>
       <c r="B36">
@@ -711,7 +713,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>42603</v>
       </c>
       <c r="B37">
@@ -719,7 +721,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>42604</v>
       </c>
       <c r="B38">
@@ -727,7 +729,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>42605</v>
       </c>
       <c r="B39">
@@ -735,7 +737,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>42606</v>
       </c>
       <c r="B40">
@@ -743,7 +745,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>42607</v>
       </c>
       <c r="B41">
@@ -751,7 +753,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>42608</v>
       </c>
       <c r="B42">
@@ -759,7 +761,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42609</v>
       </c>
       <c r="B43">
@@ -767,7 +769,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>42610</v>
       </c>
       <c r="B44">
@@ -775,7 +777,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>42611</v>
       </c>
       <c r="B45">
@@ -783,7 +785,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>42612</v>
       </c>
       <c r="B46">
@@ -791,7 +793,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>42613</v>
       </c>
       <c r="B47">
@@ -799,7 +801,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>42614</v>
       </c>
       <c r="B48">
@@ -807,7 +809,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>42615</v>
       </c>
       <c r="B49">
@@ -815,7 +817,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>42616</v>
       </c>
       <c r="B50">
@@ -823,7 +825,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>42617</v>
       </c>
       <c r="B51">
@@ -831,7 +833,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>42618</v>
       </c>
       <c r="B52">
@@ -839,7 +841,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>42619</v>
       </c>
       <c r="B53">
@@ -847,7 +849,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>42620</v>
       </c>
       <c r="B54">
@@ -855,7 +857,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>42621</v>
       </c>
       <c r="B55">
@@ -863,7 +865,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>42622</v>
       </c>
       <c r="B56">
@@ -871,7 +873,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>42623</v>
       </c>
       <c r="B57">
@@ -879,7 +881,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>42624</v>
       </c>
       <c r="B58">
@@ -887,7 +889,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>42625</v>
       </c>
       <c r="B59">
@@ -895,7 +897,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>42626</v>
       </c>
       <c r="B60">
@@ -903,7 +905,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>42627</v>
       </c>
       <c r="B61">
@@ -911,7 +913,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>42628</v>
       </c>
       <c r="B62">
@@ -919,7 +921,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>42629</v>
       </c>
       <c r="B63">
@@ -927,7 +929,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>42630</v>
       </c>
       <c r="B64">
@@ -935,7 +937,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>42631</v>
       </c>
       <c r="B65">
@@ -943,7 +945,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>42632</v>
       </c>
       <c r="B66">
@@ -951,7 +953,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>42633</v>
       </c>
       <c r="B67">
@@ -959,7 +961,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>42634</v>
       </c>
       <c r="B68">
@@ -967,7 +969,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>42635</v>
       </c>
       <c r="B69">
@@ -975,7 +977,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>42636</v>
       </c>
       <c r="B70">
@@ -983,7 +985,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>42637</v>
       </c>
       <c r="B71">
@@ -991,7 +993,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>42638</v>
       </c>
       <c r="B72">
@@ -999,7 +1001,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>42639</v>
       </c>
       <c r="B73">
@@ -1007,7 +1009,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>42640</v>
       </c>
       <c r="B74">
@@ -1015,7 +1017,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>42641</v>
       </c>
       <c r="B75">
@@ -1023,7 +1025,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>42642</v>
       </c>
       <c r="B76">
@@ -1031,7 +1033,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>42643</v>
       </c>
       <c r="B77">
@@ -1039,7 +1041,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>42644</v>
       </c>
       <c r="B78">
@@ -1047,7 +1049,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>42645</v>
       </c>
       <c r="B79">
@@ -1055,7 +1057,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>42646</v>
       </c>
       <c r="B80">
@@ -1063,7 +1065,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>42647</v>
       </c>
       <c r="B81">
@@ -1071,7 +1073,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>42648</v>
       </c>
       <c r="B82">
@@ -1079,7 +1081,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>42649</v>
       </c>
       <c r="B83">
@@ -1087,7 +1089,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>42650</v>
       </c>
       <c r="B84">
@@ -1095,7 +1097,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>42651</v>
       </c>
       <c r="B85">
@@ -1103,7 +1105,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>42652</v>
       </c>
       <c r="B86">
@@ -1111,7 +1113,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>42653</v>
       </c>
       <c r="B87">
@@ -1119,7 +1121,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>42654</v>
       </c>
       <c r="B88">
@@ -1127,7 +1129,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>42655</v>
       </c>
       <c r="B89">
@@ -1135,7 +1137,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>42656</v>
       </c>
       <c r="B90">
@@ -1143,7 +1145,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>42657</v>
       </c>
       <c r="B91">
@@ -1151,7 +1153,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>42658</v>
       </c>
       <c r="B92">
@@ -1159,7 +1161,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>42659</v>
       </c>
       <c r="B93">
@@ -1167,7 +1169,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>42660</v>
       </c>
       <c r="B94">
@@ -1175,7 +1177,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>42661</v>
       </c>
       <c r="B95">
@@ -1183,7 +1185,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>42662</v>
       </c>
       <c r="B96">
@@ -1191,7 +1193,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>42663</v>
       </c>
       <c r="B97">
@@ -1199,7 +1201,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>42664</v>
       </c>
       <c r="B98">
@@ -1207,7 +1209,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>42665</v>
       </c>
       <c r="B99">
@@ -1215,7 +1217,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>42666</v>
       </c>
       <c r="B100">
@@ -1223,7 +1225,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>42667</v>
       </c>
       <c r="B101">
@@ -1231,7 +1233,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>42668</v>
       </c>
       <c r="B102">
@@ -1239,7 +1241,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>42669</v>
       </c>
       <c r="B103">
@@ -1247,7 +1249,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>42670</v>
       </c>
       <c r="B104">
@@ -1255,7 +1257,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>42671</v>
       </c>
       <c r="B105">
@@ -1263,7 +1265,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>42672</v>
       </c>
       <c r="B106">
@@ -1271,7 +1273,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>42673</v>
       </c>
       <c r="B107">
@@ -1279,7 +1281,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>42674</v>
       </c>
       <c r="B108">
@@ -1287,7 +1289,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>42675</v>
       </c>
       <c r="B109">
@@ -1295,7 +1297,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>42676</v>
       </c>
       <c r="B110">
@@ -1303,7 +1305,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>42677</v>
       </c>
       <c r="B111">
@@ -1311,7 +1313,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>42678</v>
       </c>
       <c r="B112">
@@ -1319,7 +1321,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>42679</v>
       </c>
       <c r="B113">
@@ -1327,7 +1329,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>42680</v>
       </c>
       <c r="B114">
@@ -1335,7 +1337,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>42681</v>
       </c>
       <c r="B115">
@@ -1343,7 +1345,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>42682</v>
       </c>
       <c r="B116">
@@ -1351,7 +1353,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>42683</v>
       </c>
       <c r="B117">
@@ -1359,7 +1361,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>42684</v>
       </c>
       <c r="B118">
@@ -1367,7 +1369,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>42685</v>
       </c>
       <c r="B119">
@@ -1375,7 +1377,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>42686</v>
       </c>
       <c r="B120">
@@ -1383,7 +1385,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>42687</v>
       </c>
       <c r="B121">
@@ -1391,7 +1393,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>42688</v>
       </c>
       <c r="B122">
@@ -1399,7 +1401,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>42689</v>
       </c>
       <c r="B123">
@@ -1407,7 +1409,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>42690</v>
       </c>
       <c r="B124">
@@ -1415,7 +1417,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>42691</v>
       </c>
       <c r="B125">
@@ -1423,7 +1425,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>42692</v>
       </c>
       <c r="B126">
@@ -1431,7 +1433,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>42693</v>
       </c>
       <c r="B127">
@@ -1439,7 +1441,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>42694</v>
       </c>
       <c r="B128">
@@ -1447,7 +1449,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>42695</v>
       </c>
       <c r="B129">
@@ -1455,7 +1457,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>42696</v>
       </c>
       <c r="B130">
@@ -1463,7 +1465,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>42697</v>
       </c>
       <c r="B131">
@@ -1471,7 +1473,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>42698</v>
       </c>
       <c r="B132">
@@ -1479,7 +1481,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>42699</v>
       </c>
       <c r="B133">
@@ -1487,7 +1489,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>42700</v>
       </c>
       <c r="B134">
@@ -1495,7 +1497,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>42701</v>
       </c>
       <c r="B135">
@@ -1503,7 +1505,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>42702</v>
       </c>
       <c r="B136">
@@ -1511,7 +1513,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>42703</v>
       </c>
       <c r="B137">
@@ -1519,7 +1521,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>42704</v>
       </c>
       <c r="B138">
@@ -1527,7 +1529,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>42705</v>
       </c>
       <c r="B139">
@@ -1535,7 +1537,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>42706</v>
       </c>
       <c r="B140">
@@ -1543,7 +1545,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>42707</v>
       </c>
       <c r="B141">
@@ -1551,7 +1553,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>42708</v>
       </c>
       <c r="B142">
@@ -1559,7 +1561,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>42709</v>
       </c>
       <c r="B143">
@@ -1567,7 +1569,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>42710</v>
       </c>
       <c r="B144">
@@ -1575,7 +1577,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>42711</v>
       </c>
       <c r="B145">
@@ -1583,7 +1585,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>42712</v>
       </c>
       <c r="B146">
@@ -1591,7 +1593,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>42713</v>
       </c>
       <c r="B147">
@@ -1599,7 +1601,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>42714</v>
       </c>
       <c r="B148">
@@ -1607,7 +1609,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>42715</v>
       </c>
       <c r="B149">
@@ -1615,7 +1617,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>42716</v>
       </c>
       <c r="B150">
@@ -1623,7 +1625,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>42717</v>
       </c>
       <c r="B151">
@@ -1631,7 +1633,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>42718</v>
       </c>
       <c r="B152">
@@ -1639,7 +1641,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>42719</v>
       </c>
       <c r="B153">
@@ -1647,7 +1649,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>42720</v>
       </c>
       <c r="B154">
@@ -1655,7 +1657,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>42721</v>
       </c>
       <c r="B155">
@@ -1663,7 +1665,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>42722</v>
       </c>
       <c r="B156">
@@ -1671,7 +1673,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>42723</v>
       </c>
       <c r="B157">
@@ -1679,7 +1681,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>42724</v>
       </c>
       <c r="B158">
@@ -1687,7 +1689,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>42725</v>
       </c>
       <c r="B159">
@@ -1695,7 +1697,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>42726</v>
       </c>
       <c r="B160">
@@ -1703,7 +1705,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>42727</v>
       </c>
       <c r="B161">
@@ -1711,7 +1713,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>42728</v>
       </c>
       <c r="B162">
@@ -1719,7 +1721,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>42729</v>
       </c>
       <c r="B163">
@@ -1727,7 +1729,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>42730</v>
       </c>
       <c r="B164">
@@ -1735,7 +1737,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>42731</v>
       </c>
       <c r="B165">
@@ -1743,7 +1745,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>42732</v>
       </c>
       <c r="B166">
@@ -1751,7 +1753,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>42733</v>
       </c>
       <c r="B167">
@@ -1759,7 +1761,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>42734</v>
       </c>
       <c r="B168">
@@ -1767,7 +1769,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>42735</v>
       </c>
       <c r="B169">
@@ -1775,7 +1777,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>42736</v>
       </c>
       <c r="B170">
@@ -1783,7 +1785,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>42737</v>
       </c>
       <c r="B171">
@@ -1791,7 +1793,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>42738</v>
       </c>
       <c r="B172">
@@ -1799,7 +1801,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>42739</v>
       </c>
       <c r="B173">
@@ -1807,7 +1809,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>42740</v>
       </c>
       <c r="B174">
@@ -1815,7 +1817,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>42741</v>
       </c>
       <c r="B175">
@@ -1823,7 +1825,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>42742</v>
       </c>
       <c r="B176">
@@ -1831,7 +1833,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>42743</v>
       </c>
       <c r="B177">
@@ -1839,7 +1841,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>42744</v>
       </c>
       <c r="B178">
@@ -1847,7 +1849,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>42745</v>
       </c>
       <c r="B179">
@@ -1855,7 +1857,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>42746</v>
       </c>
       <c r="B180">
@@ -1863,7 +1865,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>42747</v>
       </c>
       <c r="B181">
@@ -1871,7 +1873,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>42748</v>
       </c>
       <c r="B182">
@@ -1879,7 +1881,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>42749</v>
       </c>
       <c r="B183">
@@ -1887,7 +1889,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>42750</v>
       </c>
       <c r="B184">
@@ -1895,7 +1897,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>42751</v>
       </c>
       <c r="B185">
@@ -1903,7 +1905,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>42752</v>
       </c>
       <c r="B186">
@@ -1911,7 +1913,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>42753</v>
       </c>
       <c r="B187">
@@ -1919,7 +1921,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>42754</v>
       </c>
       <c r="B188">
@@ -1927,7 +1929,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>42755</v>
       </c>
       <c r="B189">
@@ -1935,7 +1937,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>42756</v>
       </c>
       <c r="B190">
@@ -1943,7 +1945,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>42757</v>
       </c>
       <c r="B191">
@@ -1951,7 +1953,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>42758</v>
       </c>
       <c r="B192">
@@ -1959,7 +1961,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>42759</v>
       </c>
       <c r="B193">
@@ -1967,7 +1969,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>42760</v>
       </c>
       <c r="B194">
@@ -1975,7 +1977,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>42761</v>
       </c>
       <c r="B195">
@@ -1983,7 +1985,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>42762</v>
       </c>
       <c r="B196">
@@ -1991,7 +1993,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>42763</v>
       </c>
       <c r="B197">
@@ -1999,7 +2001,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>42764</v>
       </c>
       <c r="B198">
@@ -2007,7 +2009,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>42765</v>
       </c>
       <c r="B199">
@@ -2015,7 +2017,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>42766</v>
       </c>
       <c r="B200">
@@ -2023,7 +2025,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>42767</v>
       </c>
       <c r="B201">
@@ -2031,7 +2033,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>42768</v>
       </c>
       <c r="B202">
@@ -2039,7 +2041,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>42769</v>
       </c>
       <c r="B203">
@@ -2047,7 +2049,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>42770</v>
       </c>
       <c r="B204">
@@ -2055,7 +2057,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>42771</v>
       </c>
       <c r="B205">
@@ -2063,7 +2065,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>42772</v>
       </c>
       <c r="B206">
@@ -2071,7 +2073,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>42773</v>
       </c>
       <c r="B207">
@@ -2079,7 +2081,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>42774</v>
       </c>
       <c r="B208">
@@ -2087,7 +2089,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>42775</v>
       </c>
       <c r="B209">
@@ -2095,7 +2097,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>42776</v>
       </c>
       <c r="B210">
@@ -2103,7 +2105,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>42777</v>
       </c>
       <c r="B211">
@@ -2111,7 +2113,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>42778</v>
       </c>
       <c r="B212">
@@ -2119,7 +2121,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>42779</v>
       </c>
       <c r="B213">
@@ -2127,7 +2129,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>42780</v>
       </c>
       <c r="B214">
@@ -2135,7 +2137,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>42781</v>
       </c>
       <c r="B215">
@@ -2143,7 +2145,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>42782</v>
       </c>
       <c r="B216">
@@ -2151,7 +2153,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>42783</v>
       </c>
       <c r="B217">
@@ -2159,7 +2161,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>42784</v>
       </c>
       <c r="B218">
@@ -2167,7 +2169,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>42785</v>
       </c>
       <c r="B219">
@@ -2175,7 +2177,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>42786</v>
       </c>
       <c r="B220">
@@ -2183,7 +2185,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>42787</v>
       </c>
       <c r="B221">
@@ -2191,7 +2193,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>42788</v>
       </c>
       <c r="B222">
@@ -2199,7 +2201,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>42789</v>
       </c>
       <c r="B223">
@@ -2207,7 +2209,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>42790</v>
       </c>
       <c r="B224">
@@ -2215,7 +2217,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>42791</v>
       </c>
       <c r="B225">
@@ -2223,7 +2225,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>42792</v>
       </c>
       <c r="B226">
@@ -2231,7 +2233,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>42793</v>
       </c>
       <c r="B227">
@@ -2239,7 +2241,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>42794</v>
       </c>
       <c r="B228">
@@ -2247,7 +2249,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>42795</v>
       </c>
       <c r="B229">
@@ -2255,7 +2257,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>42796</v>
       </c>
       <c r="B230">
@@ -2263,7 +2265,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>42797</v>
       </c>
       <c r="B231">
@@ -2271,7 +2273,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>42798</v>
       </c>
       <c r="B232">
@@ -2279,7 +2281,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>42799</v>
       </c>
       <c r="B233">
@@ -2287,7 +2289,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>42800</v>
       </c>
       <c r="B234">
@@ -2295,7 +2297,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>42801</v>
       </c>
       <c r="B235">
@@ -2303,7 +2305,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>42802</v>
       </c>
       <c r="B236">
@@ -2311,7 +2313,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>42803</v>
       </c>
       <c r="B237">
@@ -2319,7 +2321,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>42804</v>
       </c>
       <c r="B238">
@@ -2327,7 +2329,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>42805</v>
       </c>
       <c r="B239">
@@ -2335,7 +2337,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>42806</v>
       </c>
       <c r="B240">
@@ -2343,7 +2345,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>42807</v>
       </c>
       <c r="B241">
@@ -2351,7 +2353,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>42808</v>
       </c>
       <c r="B242">
@@ -2359,7 +2361,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>42809</v>
       </c>
       <c r="B243">
@@ -2367,7 +2369,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>42810</v>
       </c>
       <c r="B244">
@@ -2375,7 +2377,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>42811</v>
       </c>
       <c r="B245">
@@ -2383,7 +2385,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>42812</v>
       </c>
       <c r="B246">
@@ -2391,7 +2393,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>42813</v>
       </c>
       <c r="B247">
@@ -2399,7 +2401,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>42814</v>
       </c>
       <c r="B248">
@@ -2407,7 +2409,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>42815</v>
       </c>
       <c r="B249">
@@ -2415,7 +2417,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>42816</v>
       </c>
       <c r="B250">
@@ -2423,7 +2425,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>42817</v>
       </c>
       <c r="B251">
@@ -2431,7 +2433,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>42818</v>
       </c>
       <c r="B252">
@@ -2439,7 +2441,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>42819</v>
       </c>
       <c r="B253">
@@ -2447,7 +2449,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>42820</v>
       </c>
       <c r="B254">
@@ -2455,7 +2457,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>42821</v>
       </c>
       <c r="B255">
@@ -2463,7 +2465,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>42822</v>
       </c>
       <c r="B256">
@@ -2471,7 +2473,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>42823</v>
       </c>
       <c r="B257">
@@ -2479,7 +2481,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>42824</v>
       </c>
       <c r="B258">
@@ -2487,7 +2489,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>42825</v>
       </c>
       <c r="B259">
@@ -2495,7 +2497,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>42826</v>
       </c>
       <c r="B260">
@@ -2503,7 +2505,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>42827</v>
       </c>
       <c r="B261">
@@ -2511,7 +2513,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>42828</v>
       </c>
       <c r="B262">
@@ -2519,7 +2521,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>42829</v>
       </c>
       <c r="B263">
@@ -2527,7 +2529,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>42830</v>
       </c>
       <c r="B264">
@@ -2535,7 +2537,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>42831</v>
       </c>
       <c r="B265">
@@ -2543,7 +2545,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>42832</v>
       </c>
       <c r="B266">
@@ -2551,7 +2553,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>42833</v>
       </c>
       <c r="B267">
@@ -2559,7 +2561,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>42834</v>
       </c>
       <c r="B268">
@@ -2567,7 +2569,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>42835</v>
       </c>
       <c r="B269">
@@ -2575,7 +2577,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>42836</v>
       </c>
       <c r="B270">
@@ -2583,7 +2585,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>42837</v>
       </c>
       <c r="B271">
@@ -2591,7 +2593,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>42838</v>
       </c>
       <c r="B272">
@@ -2599,7 +2601,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>42839</v>
       </c>
       <c r="B273">
@@ -2607,7 +2609,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>42840</v>
       </c>
       <c r="B274">
@@ -2615,7 +2617,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>42841</v>
       </c>
       <c r="B275">
@@ -2623,7 +2625,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>42842</v>
       </c>
       <c r="B276">
@@ -2631,7 +2633,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>42843</v>
       </c>
       <c r="B277">
@@ -2639,7 +2641,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>42844</v>
       </c>
       <c r="B278">
@@ -2647,7 +2649,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>42845</v>
       </c>
       <c r="B279">
@@ -2655,7 +2657,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>42846</v>
       </c>
       <c r="B280">
@@ -2663,7 +2665,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>42847</v>
       </c>
       <c r="B281">
@@ -2671,7 +2673,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>42848</v>
       </c>
       <c r="B282">
@@ -2679,7 +2681,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>42849</v>
       </c>
       <c r="B283">
@@ -2687,7 +2689,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>42850</v>
       </c>
       <c r="B284">
@@ -2695,7 +2697,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>42851</v>
       </c>
       <c r="B285">
@@ -2703,7 +2705,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>42852</v>
       </c>
       <c r="B286">
@@ -2711,7 +2713,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>42853</v>
       </c>
       <c r="B287">
@@ -2719,7 +2721,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>42854</v>
       </c>
       <c r="B288">
@@ -2727,7 +2729,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>42855</v>
       </c>
       <c r="B289">
@@ -2735,7 +2737,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>42856</v>
       </c>
       <c r="B290">
@@ -2743,7 +2745,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="1">
         <v>42857</v>
       </c>
       <c r="B291">
@@ -2751,7 +2753,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="1">
         <v>42858</v>
       </c>
       <c r="B292">
@@ -2759,7 +2761,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="1">
         <v>42859</v>
       </c>
       <c r="B293">
@@ -2767,7 +2769,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="1">
         <v>42860</v>
       </c>
       <c r="B294">
@@ -2775,7 +2777,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="1">
         <v>42861</v>
       </c>
       <c r="B295">
@@ -2783,7 +2785,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>42862</v>
       </c>
       <c r="B296">
@@ -2791,7 +2793,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>42863</v>
       </c>
       <c r="B297">
@@ -2799,7 +2801,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="1">
         <v>42864</v>
       </c>
       <c r="B298">
@@ -2807,7 +2809,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="1">
         <v>42865</v>
       </c>
       <c r="B299">
@@ -2815,7 +2817,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="1">
         <v>42866</v>
       </c>
       <c r="B300">
@@ -2823,7 +2825,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="1">
         <v>42867</v>
       </c>
       <c r="B301">
@@ -2831,7 +2833,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="1">
         <v>42868</v>
       </c>
       <c r="B302">
@@ -2839,7 +2841,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="1">
         <v>42869</v>
       </c>
       <c r="B303">
@@ -2847,7 +2849,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="1">
         <v>42870</v>
       </c>
       <c r="B304">
@@ -2855,7 +2857,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="1">
         <v>42871</v>
       </c>
       <c r="B305">
@@ -2863,7 +2865,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="1">
         <v>42872</v>
       </c>
       <c r="B306">
@@ -2871,7 +2873,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="1">
         <v>42873</v>
       </c>
       <c r="B307">
@@ -2879,7 +2881,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="1">
         <v>42874</v>
       </c>
       <c r="B308">
@@ -2887,7 +2889,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="1">
         <v>42875</v>
       </c>
       <c r="B309">
@@ -2895,7 +2897,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>42876</v>
       </c>
       <c r="B310">
@@ -2903,7 +2905,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="1">
         <v>42877</v>
       </c>
       <c r="B311">
@@ -2911,7 +2913,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="1">
         <v>42878</v>
       </c>
       <c r="B312">
@@ -2919,7 +2921,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="1">
         <v>42879</v>
       </c>
       <c r="B313">
@@ -2927,7 +2929,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="1">
         <v>42880</v>
       </c>
       <c r="B314">
@@ -2935,7 +2937,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="1">
         <v>42881</v>
       </c>
       <c r="B315">
@@ -2943,7 +2945,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>42882</v>
       </c>
       <c r="B316">
@@ -2951,7 +2953,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="1">
         <v>42883</v>
       </c>
       <c r="B317">
@@ -2959,7 +2961,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="1">
         <v>42884</v>
       </c>
       <c r="B318">
@@ -2967,7 +2969,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="1">
         <v>42885</v>
       </c>
       <c r="B319">
@@ -2975,7 +2977,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="1">
         <v>42886</v>
       </c>
       <c r="B320">
@@ -2983,7 +2985,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="1">
         <v>42887</v>
       </c>
       <c r="B321">
@@ -2991,7 +2993,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="1">
         <v>42888</v>
       </c>
       <c r="B322">
@@ -2999,7 +3001,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="1">
         <v>42889</v>
       </c>
       <c r="B323">
@@ -3007,7 +3009,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="1">
         <v>42890</v>
       </c>
       <c r="B324">
@@ -3015,7 +3017,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="1">
         <v>42891</v>
       </c>
       <c r="B325">
@@ -3023,7 +3025,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="1">
         <v>42892</v>
       </c>
       <c r="B326">
@@ -3031,7 +3033,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="1">
         <v>42893</v>
       </c>
       <c r="B327">
@@ -3039,7 +3041,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="1">
         <v>42894</v>
       </c>
       <c r="B328">
@@ -3047,7 +3049,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="1">
         <v>42895</v>
       </c>
       <c r="B329">
@@ -3055,7 +3057,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="1">
         <v>42896</v>
       </c>
       <c r="B330">
@@ -3063,7 +3065,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>42897</v>
       </c>
       <c r="B331">
@@ -3071,7 +3073,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="1">
         <v>42898</v>
       </c>
       <c r="B332">
@@ -3079,7 +3081,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="1">
         <v>42899</v>
       </c>
       <c r="B333">
@@ -3087,7 +3089,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>42900</v>
       </c>
       <c r="B334">
@@ -3095,7 +3097,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="1">
         <v>42901</v>
       </c>
       <c r="B335">
@@ -3103,7 +3105,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="1">
         <v>42902</v>
       </c>
       <c r="B336">
@@ -3111,7 +3113,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="1">
         <v>42903</v>
       </c>
       <c r="B337">
@@ -3119,7 +3121,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="1">
         <v>42904</v>
       </c>
       <c r="B338">
@@ -3127,7 +3129,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="1">
         <v>42905</v>
       </c>
       <c r="B339">
@@ -3135,7 +3137,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="1">
         <v>42906</v>
       </c>
       <c r="B340">
@@ -3143,7 +3145,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="1">
         <v>42907</v>
       </c>
       <c r="B341">
@@ -3151,7 +3153,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="1">
         <v>42908</v>
       </c>
       <c r="B342">
@@ -3159,7 +3161,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="1">
         <v>42909</v>
       </c>
       <c r="B343">
@@ -3167,7 +3169,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>42910</v>
       </c>
       <c r="B344">
@@ -3175,7 +3177,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="1">
         <v>42911</v>
       </c>
       <c r="B345">
@@ -3183,7 +3185,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="1">
         <v>42912</v>
       </c>
       <c r="B346">
@@ -3191,7 +3193,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="1">
         <v>42913</v>
       </c>
       <c r="B347">
@@ -3199,7 +3201,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="1">
         <v>42914</v>
       </c>
       <c r="B348">
@@ -3207,7 +3209,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="1">
         <v>42915</v>
       </c>
       <c r="B349">
@@ -3215,7 +3217,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="1">
         <v>42916</v>
       </c>
       <c r="B350">
@@ -3223,7 +3225,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>42917</v>
       </c>
       <c r="B351">
@@ -3231,7 +3233,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="1">
         <v>42918</v>
       </c>
       <c r="B352">
@@ -3239,7 +3241,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="1">
         <v>42919</v>
       </c>
       <c r="B353">
@@ -3247,7 +3249,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="1">
         <v>42920</v>
       </c>
       <c r="B354">
@@ -3255,7 +3257,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="1">
         <v>42921</v>
       </c>
       <c r="B355">
@@ -3263,7 +3265,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="1">
         <v>42922</v>
       </c>
       <c r="B356">
@@ -3271,7 +3273,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="1">
         <v>42923</v>
       </c>
       <c r="B357">
@@ -3279,7 +3281,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="1">
         <v>42924</v>
       </c>
       <c r="B358">
@@ -3287,7 +3289,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>42925</v>
       </c>
       <c r="B359">
@@ -3295,7 +3297,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="1">
         <v>42926</v>
       </c>
       <c r="B360">
@@ -3303,7 +3305,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="1">
         <v>42927</v>
       </c>
       <c r="B361">
@@ -3311,7 +3313,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="1">
         <v>42928</v>
       </c>
       <c r="B362">
@@ -3319,7 +3321,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="1">
         <v>42929</v>
       </c>
       <c r="B363">
@@ -3327,7 +3329,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="1">
         <v>42930</v>
       </c>
       <c r="B364">
@@ -3335,7 +3337,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="1">
         <v>42931</v>
       </c>
       <c r="B365">
@@ -3343,7 +3345,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="1">
         <v>42932</v>
       </c>
       <c r="B366">
@@ -3351,7 +3353,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="1">
         <v>42933</v>
       </c>
       <c r="B367">
@@ -3359,7 +3361,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="1">
         <v>42934</v>
       </c>
       <c r="B368">
@@ -3367,7 +3369,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="1">
         <v>42935</v>
       </c>
       <c r="B369">
@@ -3375,7 +3377,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="1">
         <v>42936</v>
       </c>
       <c r="B370">
@@ -3383,7 +3385,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="1">
         <v>42937</v>
       </c>
       <c r="B371">
@@ -3391,7 +3393,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="1">
         <v>42938</v>
       </c>
       <c r="B372">
@@ -3399,7 +3401,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="1">
         <v>42939</v>
       </c>
       <c r="B373">
@@ -3407,7 +3409,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="1">
         <v>42940</v>
       </c>
       <c r="B374">
@@ -3415,7 +3417,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="1">
         <v>42941</v>
       </c>
       <c r="B375">
@@ -3423,7 +3425,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="1">
         <v>42942</v>
       </c>
       <c r="B376">
@@ -3431,7 +3433,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="1">
         <v>42943</v>
       </c>
       <c r="B377">
@@ -3439,7 +3441,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="1">
         <v>42944</v>
       </c>
       <c r="B378">
@@ -3447,7 +3449,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="1">
         <v>42945</v>
       </c>
       <c r="B379">
@@ -3455,7 +3457,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="1">
         <v>42946</v>
       </c>
       <c r="B380">
@@ -3463,7 +3465,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="1">
         <v>42947</v>
       </c>
       <c r="B381">
@@ -3471,7 +3473,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="1">
         <v>42948</v>
       </c>
       <c r="B382">
@@ -3479,7 +3481,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="1">
         <v>42949</v>
       </c>
       <c r="B383">
@@ -3487,7 +3489,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="1">
         <v>42950</v>
       </c>
       <c r="B384">
@@ -3495,7 +3497,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="1">
         <v>42951</v>
       </c>
       <c r="B385">
@@ -3503,7 +3505,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="1">
         <v>42952</v>
       </c>
       <c r="B386">
@@ -3511,7 +3513,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="1">
         <v>42953</v>
       </c>
       <c r="B387">
@@ -3519,7 +3521,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="1">
         <v>42954</v>
       </c>
       <c r="B388">
@@ -3527,7 +3529,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="1">
         <v>42955</v>
       </c>
       <c r="B389">
@@ -3535,7 +3537,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="1">
         <v>42956</v>
       </c>
       <c r="B390">
@@ -3543,7 +3545,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="1">
         <v>42957</v>
       </c>
       <c r="B391">
@@ -3551,7 +3553,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="1">
         <v>42958</v>
       </c>
       <c r="B392">
@@ -3559,7 +3561,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="1">
         <v>42959</v>
       </c>
       <c r="B393">
@@ -3567,7 +3569,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="1">
         <v>42960</v>
       </c>
       <c r="B394">
@@ -3575,7 +3577,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="1">
         <v>42961</v>
       </c>
       <c r="B395">
@@ -3583,7 +3585,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="1">
         <v>42962</v>
       </c>
       <c r="B396">
@@ -3591,7 +3593,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="1">
         <v>42963</v>
       </c>
       <c r="B397">
@@ -3599,7 +3601,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="1">
         <v>42964</v>
       </c>
       <c r="B398">
@@ -3607,7 +3609,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="1">
         <v>42965</v>
       </c>
       <c r="B399">
@@ -3615,7 +3617,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="1">
         <v>42966</v>
       </c>
       <c r="B400">
@@ -3623,7 +3625,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="1">
         <v>42967</v>
       </c>
       <c r="B401">
@@ -3631,7 +3633,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="1">
         <v>42968</v>
       </c>
       <c r="B402">
@@ -3639,7 +3641,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="1">
         <v>42969</v>
       </c>
       <c r="B403">
@@ -3647,7 +3649,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="1">
         <v>42970</v>
       </c>
       <c r="B404">
@@ -3655,7 +3657,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="1">
         <v>42971</v>
       </c>
       <c r="B405">
@@ -3663,7 +3665,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="1">
         <v>42972</v>
       </c>
       <c r="B406">
@@ -3671,7 +3673,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="1">
         <v>42973</v>
       </c>
       <c r="B407">
@@ -3679,7 +3681,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="1">
         <v>42974</v>
       </c>
       <c r="B408">
@@ -3687,7 +3689,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="1">
         <v>42975</v>
       </c>
       <c r="B409">
@@ -3695,7 +3697,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="1">
         <v>42976</v>
       </c>
       <c r="B410">
@@ -3703,7 +3705,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="1">
         <v>42977</v>
       </c>
       <c r="B411">
@@ -3711,7 +3713,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="1">
         <v>42978</v>
       </c>
       <c r="B412">
@@ -3719,7 +3721,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="1">
         <v>42979</v>
       </c>
       <c r="B413">
@@ -3727,7 +3729,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="1">
         <v>42980</v>
       </c>
       <c r="B414">
@@ -3735,7 +3737,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="1">
         <v>42981</v>
       </c>
       <c r="B415">
@@ -3743,7 +3745,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="1">
         <v>42982</v>
       </c>
       <c r="B416">
@@ -3751,7 +3753,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="1">
         <v>42983</v>
       </c>
       <c r="B417">
@@ -3759,7 +3761,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="1">
         <v>42984</v>
       </c>
       <c r="B418">
@@ -3767,7 +3769,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="1">
         <v>42985</v>
       </c>
       <c r="B419">
@@ -3775,7 +3777,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="1">
         <v>42986</v>
       </c>
       <c r="B420">
@@ -3783,7 +3785,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="1">
         <v>42987</v>
       </c>
       <c r="B421">
@@ -3791,7 +3793,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="1">
         <v>42988</v>
       </c>
       <c r="B422">
@@ -3799,7 +3801,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="1">
         <v>42989</v>
       </c>
       <c r="B423">
@@ -3807,7 +3809,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="1">
         <v>42990</v>
       </c>
       <c r="B424">
@@ -3815,7 +3817,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="1">
         <v>42991</v>
       </c>
       <c r="B425">
@@ -3823,7 +3825,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="1">
         <v>42992</v>
       </c>
       <c r="B426">
@@ -3831,7 +3833,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="1">
         <v>42993</v>
       </c>
       <c r="B427">
@@ -3839,7 +3841,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="1">
         <v>42994</v>
       </c>
       <c r="B428">
@@ -3847,7 +3849,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="1">
         <v>42995</v>
       </c>
       <c r="B429">
@@ -3855,7 +3857,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="1">
         <v>42996</v>
       </c>
       <c r="B430">
@@ -3863,7 +3865,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="1">
         <v>42997</v>
       </c>
       <c r="B431">
@@ -3871,7 +3873,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="1">
         <v>42998</v>
       </c>
       <c r="B432">
@@ -3879,7 +3881,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="1">
         <v>42999</v>
       </c>
       <c r="B433">
@@ -3887,7 +3889,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="1">
         <v>43000</v>
       </c>
       <c r="B434">
@@ -3895,7 +3897,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="1">
         <v>43001</v>
       </c>
       <c r="B435">
@@ -3903,7 +3905,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="1">
         <v>43002</v>
       </c>
       <c r="B436">
@@ -3911,7 +3913,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="1">
         <v>43003</v>
       </c>
       <c r="B437">
@@ -3919,7 +3921,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="1">
         <v>43004</v>
       </c>
       <c r="B438">
@@ -3927,7 +3929,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="1">
         <v>43005</v>
       </c>
       <c r="B439">
@@ -3935,7 +3937,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="1">
         <v>43006</v>
       </c>
       <c r="B440">
@@ -3943,7 +3945,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="1">
         <v>43007</v>
       </c>
       <c r="B441">
@@ -3951,7 +3953,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="1">
         <v>43008</v>
       </c>
       <c r="B442">
@@ -3959,7 +3961,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="1">
         <v>43009</v>
       </c>
       <c r="B443">
@@ -3967,7 +3969,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="1">
         <v>43010</v>
       </c>
       <c r="B444">
@@ -3975,7 +3977,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="1">
         <v>43011</v>
       </c>
       <c r="B445">
@@ -3983,7 +3985,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="1">
         <v>43012</v>
       </c>
       <c r="B446">
@@ -3991,7 +3993,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="1">
         <v>43013</v>
       </c>
       <c r="B447">
@@ -3999,7 +4001,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="1">
         <v>43014</v>
       </c>
       <c r="B448">
@@ -4007,7 +4009,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="1">
         <v>43015</v>
       </c>
       <c r="B449">
@@ -4015,7 +4017,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="1">
         <v>43016</v>
       </c>
       <c r="B450">
@@ -4023,7 +4025,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="1">
         <v>43017</v>
       </c>
       <c r="B451">
@@ -4031,7 +4033,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="1">
         <v>43018</v>
       </c>
       <c r="B452">
@@ -4039,7 +4041,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="1">
         <v>43019</v>
       </c>
       <c r="B453">
@@ -4047,7 +4049,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="1">
         <v>43020</v>
       </c>
       <c r="B454">
@@ -4055,7 +4057,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="1">
         <v>43021</v>
       </c>
       <c r="B455">
@@ -4063,7 +4065,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="1">
         <v>43022</v>
       </c>
       <c r="B456">
@@ -4071,7 +4073,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="1">
         <v>43023</v>
       </c>
       <c r="B457">
@@ -4079,7 +4081,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="1">
         <v>43024</v>
       </c>
       <c r="B458">
@@ -4087,7 +4089,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="1">
         <v>43025</v>
       </c>
       <c r="B459">
@@ -4095,7 +4097,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="1">
         <v>43026</v>
       </c>
       <c r="B460">
@@ -4103,7 +4105,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="1">
         <v>43027</v>
       </c>
       <c r="B461">
@@ -4111,7 +4113,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="1">
         <v>43028</v>
       </c>
       <c r="B462">
@@ -4119,7 +4121,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="1">
         <v>43029</v>
       </c>
       <c r="B463">
@@ -4127,7 +4129,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="1">
         <v>43030</v>
       </c>
       <c r="B464">
@@ -4135,7 +4137,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="1">
         <v>43031</v>
       </c>
       <c r="B465">
@@ -4143,7 +4145,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="1">
         <v>43032</v>
       </c>
       <c r="B466">
@@ -4151,7 +4153,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="1">
         <v>43033</v>
       </c>
       <c r="B467">
@@ -4159,7 +4161,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="1">
         <v>43034</v>
       </c>
       <c r="B468">
@@ -4167,7 +4169,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="1">
         <v>43035</v>
       </c>
       <c r="B469">
@@ -4175,7 +4177,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="1">
         <v>43036</v>
       </c>
       <c r="B470">
@@ -4183,7 +4185,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="1">
         <v>43037</v>
       </c>
       <c r="B471">
@@ -4191,7 +4193,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="1">
         <v>43038</v>
       </c>
       <c r="B472">
@@ -4199,7 +4201,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="1">
         <v>43039</v>
       </c>
       <c r="B473">
@@ -4207,7 +4209,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="1">
         <v>43040</v>
       </c>
       <c r="B474">
@@ -4215,7 +4217,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="1">
         <v>43041</v>
       </c>
       <c r="B475">
@@ -4223,7 +4225,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="1">
         <v>43042</v>
       </c>
       <c r="B476">
@@ -4231,7 +4233,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="1">
         <v>43043</v>
       </c>
       <c r="B477">
@@ -4239,7 +4241,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="1">
         <v>43044</v>
       </c>
       <c r="B478">
@@ -4247,7 +4249,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="1">
         <v>43045</v>
       </c>
       <c r="B479">
@@ -4255,7 +4257,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="1">
         <v>43046</v>
       </c>
       <c r="B480">
@@ -4263,7 +4265,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="1">
         <v>43047</v>
       </c>
       <c r="B481">
@@ -4271,7 +4273,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="1">
         <v>43048</v>
       </c>
       <c r="B482">
@@ -4279,7 +4281,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="1">
         <v>43049</v>
       </c>
       <c r="B483">
@@ -4287,7 +4289,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="1">
         <v>43050</v>
       </c>
       <c r="B484">
@@ -4295,7 +4297,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="1">
         <v>43051</v>
       </c>
       <c r="B485">
@@ -4303,7 +4305,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="1">
         <v>43052</v>
       </c>
       <c r="B486">
@@ -4311,7 +4313,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="1">
         <v>43053</v>
       </c>
       <c r="B487">
@@ -4319,7 +4321,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="1">
         <v>43054</v>
       </c>
       <c r="B488">
@@ -4327,7 +4329,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="1">
         <v>43055</v>
       </c>
       <c r="B489">
@@ -4335,7 +4337,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="1">
         <v>43056</v>
       </c>
       <c r="B490">
@@ -4343,7 +4345,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="1">
         <v>43057</v>
       </c>
       <c r="B491">
@@ -4351,7 +4353,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="1">
         <v>43058</v>
       </c>
       <c r="B492">
@@ -4359,7 +4361,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="1">
         <v>43059</v>
       </c>
       <c r="B493">
@@ -4367,7 +4369,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="1">
         <v>43060</v>
       </c>
       <c r="B494">
@@ -4375,7 +4377,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="1">
         <v>43061</v>
       </c>
       <c r="B495">
@@ -4383,7 +4385,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="1">
         <v>43062</v>
       </c>
       <c r="B496">
@@ -4391,7 +4393,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="1">
         <v>43063</v>
       </c>
       <c r="B497">
@@ -4399,7 +4401,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="1">
         <v>43064</v>
       </c>
       <c r="B498">
@@ -4407,7 +4409,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="1">
         <v>43065</v>
       </c>
       <c r="B499">
@@ -4415,7 +4417,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="1">
         <v>43066</v>
       </c>
       <c r="B500">
@@ -4423,7 +4425,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="1">
         <v>43067</v>
       </c>
       <c r="B501">
@@ -4431,7 +4433,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="1">
         <v>43068</v>
       </c>
       <c r="B502">
@@ -4439,7 +4441,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="1">
         <v>43069</v>
       </c>
       <c r="B503">
@@ -4447,7 +4449,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="1">
         <v>43070</v>
       </c>
       <c r="B504">
@@ -4455,7 +4457,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="1">
         <v>43071</v>
       </c>
       <c r="B505">
@@ -4463,7 +4465,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="1">
         <v>43072</v>
       </c>
       <c r="B506">
@@ -4471,7 +4473,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="1">
         <v>43073</v>
       </c>
       <c r="B507">
@@ -4479,7 +4481,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="1">
         <v>43074</v>
       </c>
       <c r="B508">
@@ -4487,7 +4489,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="1">
         <v>43075</v>
       </c>
       <c r="B509">
@@ -4495,7 +4497,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="1">
         <v>43076</v>
       </c>
       <c r="B510">
@@ -4503,7 +4505,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="1">
         <v>43077</v>
       </c>
       <c r="B511">
@@ -4511,7 +4513,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="1">
         <v>43078</v>
       </c>
       <c r="B512">
@@ -4519,7 +4521,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="1">
         <v>43079</v>
       </c>
       <c r="B513">
@@ -4527,7 +4529,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="1">
         <v>43080</v>
       </c>
       <c r="B514">
@@ -4535,7 +4537,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="1">
         <v>43081</v>
       </c>
       <c r="B515">
@@ -4543,7 +4545,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="1">
         <v>43082</v>
       </c>
       <c r="B516">
@@ -4551,7 +4553,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="1">
         <v>43083</v>
       </c>
       <c r="B517">
@@ -4559,7 +4561,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="1">
         <v>43084</v>
       </c>
       <c r="B518">
@@ -4567,7 +4569,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="1">
         <v>43085</v>
       </c>
       <c r="B519">
@@ -4575,7 +4577,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="1">
         <v>43086</v>
       </c>
       <c r="B520">
@@ -4583,7 +4585,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="1">
         <v>43087</v>
       </c>
       <c r="B521">
@@ -4591,7 +4593,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="1">
         <v>43088</v>
       </c>
       <c r="B522">
@@ -4599,7 +4601,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="1">
         <v>43089</v>
       </c>
       <c r="B523">
@@ -4607,7 +4609,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="1">
         <v>43090</v>
       </c>
       <c r="B524">
@@ -4615,7 +4617,7 @@
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="1">
         <v>43091</v>
       </c>
       <c r="B525">
@@ -4623,7 +4625,7 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="1">
         <v>43092</v>
       </c>
       <c r="B526">
@@ -4631,7 +4633,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="1">
         <v>43093</v>
       </c>
       <c r="B527">
@@ -4639,7 +4641,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="1">
         <v>43094</v>
       </c>
       <c r="B528">
@@ -4647,7 +4649,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="1">
         <v>43095</v>
       </c>
       <c r="B529">
@@ -4655,7 +4657,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="1">
         <v>43096</v>
       </c>
       <c r="B530">
@@ -4663,7 +4665,7 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="1">
         <v>43097</v>
       </c>
       <c r="B531">
@@ -4671,7 +4673,7 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="1">
         <v>43098</v>
       </c>
       <c r="B532">
@@ -4679,7 +4681,7 @@
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="1">
         <v>43099</v>
       </c>
       <c r="B533">
@@ -4687,7 +4689,7 @@
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="1">
         <v>43100</v>
       </c>
       <c r="B534">
@@ -4695,7 +4697,7 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="1">
         <v>43101</v>
       </c>
       <c r="B535">
@@ -4703,7 +4705,7 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="1">
         <v>43102</v>
       </c>
       <c r="B536">
@@ -4711,7 +4713,7 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="1">
         <v>43103</v>
       </c>
       <c r="B537">
@@ -4719,7 +4721,7 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="1">
         <v>43104</v>
       </c>
       <c r="B538">
@@ -4727,7 +4729,7 @@
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="1">
         <v>43105</v>
       </c>
       <c r="B539">
@@ -4735,7 +4737,7 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="1">
         <v>43106</v>
       </c>
       <c r="B540">
@@ -4743,7 +4745,7 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="1">
         <v>43107</v>
       </c>
       <c r="B541">
@@ -4751,7 +4753,7 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="1">
         <v>43108</v>
       </c>
       <c r="B542">
@@ -4759,7 +4761,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="1">
         <v>43109</v>
       </c>
       <c r="B543">
@@ -4767,7 +4769,7 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="1">
         <v>43110</v>
       </c>
       <c r="B544">
@@ -4775,7 +4777,7 @@
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="1">
         <v>43111</v>
       </c>
       <c r="B545">
@@ -4783,7 +4785,7 @@
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="1">
         <v>43112</v>
       </c>
       <c r="B546">
@@ -4791,7 +4793,7 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="1">
         <v>43113</v>
       </c>
       <c r="B547">
@@ -4799,7 +4801,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="1">
         <v>43114</v>
       </c>
       <c r="B548">
@@ -4807,7 +4809,7 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="1">
         <v>43115</v>
       </c>
       <c r="B549">
@@ -4815,7 +4817,7 @@
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="1">
         <v>43116</v>
       </c>
       <c r="B550">
@@ -4823,7 +4825,7 @@
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551">
+      <c r="A551" s="1">
         <v>43117</v>
       </c>
       <c r="B551">
@@ -4831,7 +4833,7 @@
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="A552" s="1">
         <v>43118</v>
       </c>
       <c r="B552">
@@ -4839,7 +4841,7 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="A553" s="1">
         <v>43119</v>
       </c>
       <c r="B553">
@@ -4847,7 +4849,7 @@
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="A554" s="1">
         <v>43120</v>
       </c>
       <c r="B554">
@@ -4855,7 +4857,7 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="A555" s="1">
         <v>43121</v>
       </c>
       <c r="B555">
@@ -4863,7 +4865,7 @@
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="A556" s="1">
         <v>43122</v>
       </c>
       <c r="B556">
@@ -4871,7 +4873,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="A557" s="1">
         <v>43123</v>
       </c>
       <c r="B557">
@@ -4879,7 +4881,7 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="A558" s="1">
         <v>43124</v>
       </c>
       <c r="B558">
@@ -4887,7 +4889,7 @@
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="A559" s="1">
         <v>43125</v>
       </c>
       <c r="B559">
@@ -4895,7 +4897,7 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="A560" s="1">
         <v>43126</v>
       </c>
       <c r="B560">
@@ -4903,7 +4905,7 @@
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="A561" s="1">
         <v>43127</v>
       </c>
       <c r="B561">
@@ -4911,7 +4913,7 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562">
+      <c r="A562" s="1">
         <v>43128</v>
       </c>
       <c r="B562">
@@ -4919,7 +4921,7 @@
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="A563" s="1">
         <v>43129</v>
       </c>
       <c r="B563">
@@ -4927,7 +4929,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="A564" s="1">
         <v>43130</v>
       </c>
       <c r="B564">
@@ -4935,7 +4937,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565">
+      <c r="A565" s="1">
         <v>43131</v>
       </c>
       <c r="B565">
@@ -4943,7 +4945,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566">
+      <c r="A566" s="1">
         <v>43132</v>
       </c>
       <c r="B566">
@@ -4951,7 +4953,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567">
+      <c r="A567" s="1">
         <v>43133</v>
       </c>
       <c r="B567">
@@ -4959,7 +4961,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568">
+      <c r="A568" s="1">
         <v>43134</v>
       </c>
       <c r="B568">
@@ -4967,7 +4969,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569">
+      <c r="A569" s="1">
         <v>43135</v>
       </c>
       <c r="B569">
@@ -4975,7 +4977,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570">
+      <c r="A570" s="1">
         <v>43136</v>
       </c>
       <c r="B570">
@@ -4983,7 +4985,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571">
+      <c r="A571" s="1">
         <v>43137</v>
       </c>
       <c r="B571">
@@ -4991,7 +4993,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572">
+      <c r="A572" s="1">
         <v>43138</v>
       </c>
       <c r="B572">
@@ -4999,7 +5001,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573">
+      <c r="A573" s="1">
         <v>43139</v>
       </c>
       <c r="B573">
@@ -5007,7 +5009,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574">
+      <c r="A574" s="1">
         <v>43140</v>
       </c>
       <c r="B574">
@@ -5015,7 +5017,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575">
+      <c r="A575" s="1">
         <v>43141</v>
       </c>
       <c r="B575">
@@ -5023,7 +5025,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576">
+      <c r="A576" s="1">
         <v>43142</v>
       </c>
       <c r="B576">
@@ -5031,7 +5033,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577">
+      <c r="A577" s="1">
         <v>43143</v>
       </c>
       <c r="B577">
@@ -5039,7 +5041,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578">
+      <c r="A578" s="1">
         <v>43144</v>
       </c>
       <c r="B578">
@@ -5047,7 +5049,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579">
+      <c r="A579" s="1">
         <v>43145</v>
       </c>
       <c r="B579">
@@ -5055,7 +5057,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580">
+      <c r="A580" s="1">
         <v>43146</v>
       </c>
       <c r="B580">
@@ -5063,7 +5065,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581">
+      <c r="A581" s="1">
         <v>43147</v>
       </c>
       <c r="B581">
@@ -5071,7 +5073,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582">
+      <c r="A582" s="1">
         <v>43148</v>
       </c>
       <c r="B582">
@@ -5079,7 +5081,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583">
+      <c r="A583" s="1">
         <v>43149</v>
       </c>
       <c r="B583">
@@ -5087,7 +5089,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584">
+      <c r="A584" s="1">
         <v>43150</v>
       </c>
       <c r="B584">
@@ -5095,7 +5097,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585">
+      <c r="A585" s="1">
         <v>43151</v>
       </c>
       <c r="B585">
@@ -5103,7 +5105,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586">
+      <c r="A586" s="1">
         <v>43152</v>
       </c>
       <c r="B586">
@@ -5111,7 +5113,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587">
+      <c r="A587" s="1">
         <v>43153</v>
       </c>
       <c r="B587">
@@ -5119,7 +5121,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588">
+      <c r="A588" s="1">
         <v>43154</v>
       </c>
       <c r="B588">
@@ -5127,7 +5129,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589">
+      <c r="A589" s="1">
         <v>43155</v>
       </c>
       <c r="B589">
@@ -5135,7 +5137,7 @@
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590">
+      <c r="A590" s="1">
         <v>43156</v>
       </c>
       <c r="B590">
@@ -5143,7 +5145,7 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591">
+      <c r="A591" s="1">
         <v>43157</v>
       </c>
       <c r="B591">
@@ -5151,7 +5153,7 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592">
+      <c r="A592" s="1">
         <v>43158</v>
       </c>
       <c r="B592">
@@ -5159,7 +5161,7 @@
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593">
+      <c r="A593" s="1">
         <v>43159</v>
       </c>
       <c r="B593">
@@ -5167,7 +5169,7 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594">
+      <c r="A594" s="1">
         <v>43160</v>
       </c>
       <c r="B594">
@@ -5175,7 +5177,7 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595">
+      <c r="A595" s="1">
         <v>43161</v>
       </c>
       <c r="B595">
@@ -5183,7 +5185,7 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596">
+      <c r="A596" s="1">
         <v>43162</v>
       </c>
       <c r="B596">
@@ -5191,7 +5193,7 @@
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597">
+      <c r="A597" s="1">
         <v>43163</v>
       </c>
       <c r="B597">
@@ -5199,7 +5201,7 @@
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598">
+      <c r="A598" s="1">
         <v>43164</v>
       </c>
       <c r="B598">
@@ -5207,7 +5209,7 @@
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599">
+      <c r="A599" s="1">
         <v>43165</v>
       </c>
       <c r="B599">
@@ -5215,7 +5217,7 @@
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600">
+      <c r="A600" s="1">
         <v>43166</v>
       </c>
       <c r="B600">
@@ -5223,7 +5225,7 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601">
+      <c r="A601" s="1">
         <v>43167</v>
       </c>
       <c r="B601">
@@ -5231,7 +5233,7 @@
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602">
+      <c r="A602" s="1">
         <v>43168</v>
       </c>
       <c r="B602">
@@ -5239,7 +5241,7 @@
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603">
+      <c r="A603" s="1">
         <v>43169</v>
       </c>
       <c r="B603">
@@ -5247,7 +5249,7 @@
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604">
+      <c r="A604" s="1">
         <v>43170</v>
       </c>
       <c r="B604">
@@ -5255,7 +5257,7 @@
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605">
+      <c r="A605" s="1">
         <v>43171</v>
       </c>
       <c r="B605">
@@ -5263,7 +5265,7 @@
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606">
+      <c r="A606" s="1">
         <v>43172</v>
       </c>
       <c r="B606">
@@ -5271,7 +5273,7 @@
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607">
+      <c r="A607" s="1">
         <v>43173</v>
       </c>
       <c r="B607">
@@ -5279,7 +5281,7 @@
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608">
+      <c r="A608" s="1">
         <v>43174</v>
       </c>
       <c r="B608">
@@ -5287,7 +5289,7 @@
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609">
+      <c r="A609" s="1">
         <v>43175</v>
       </c>
       <c r="B609">
@@ -5295,7 +5297,7 @@
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610">
+      <c r="A610" s="1">
         <v>43176</v>
       </c>
       <c r="B610">
@@ -5303,7 +5305,7 @@
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611">
+      <c r="A611" s="1">
         <v>43177</v>
       </c>
       <c r="B611">
@@ -5311,7 +5313,7 @@
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612">
+      <c r="A612" s="1">
         <v>43178</v>
       </c>
       <c r="B612">
@@ -5319,7 +5321,7 @@
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613">
+      <c r="A613" s="1">
         <v>43179</v>
       </c>
       <c r="B613">
@@ -5327,7 +5329,7 @@
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614">
+      <c r="A614" s="1">
         <v>43180</v>
       </c>
       <c r="B614">
@@ -5335,7 +5337,7 @@
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615">
+      <c r="A615" s="1">
         <v>43181</v>
       </c>
       <c r="B615">
@@ -5343,7 +5345,7 @@
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616">
+      <c r="A616" s="1">
         <v>43182</v>
       </c>
       <c r="B616">
@@ -5351,7 +5353,7 @@
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617">
+      <c r="A617" s="1">
         <v>43183</v>
       </c>
       <c r="B617">
@@ -5359,7 +5361,7 @@
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618">
+      <c r="A618" s="1">
         <v>43184</v>
       </c>
       <c r="B618">
@@ -5367,7 +5369,7 @@
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619">
+      <c r="A619" s="1">
         <v>43185</v>
       </c>
       <c r="B619">
@@ -5375,7 +5377,7 @@
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620">
+      <c r="A620" s="1">
         <v>43186</v>
       </c>
       <c r="B620">
@@ -5383,7 +5385,7 @@
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621">
+      <c r="A621" s="1">
         <v>43187</v>
       </c>
       <c r="B621">
@@ -5391,7 +5393,7 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622">
+      <c r="A622" s="1">
         <v>43188</v>
       </c>
       <c r="B622">
@@ -5399,7 +5401,7 @@
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623">
+      <c r="A623" s="1">
         <v>43189</v>
       </c>
       <c r="B623">
@@ -5407,7 +5409,7 @@
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624">
+      <c r="A624" s="1">
         <v>43190</v>
       </c>
       <c r="B624">
@@ -5415,7 +5417,7 @@
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625">
+      <c r="A625" s="1">
         <v>43191</v>
       </c>
       <c r="B625">
@@ -5423,7 +5425,7 @@
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626">
+      <c r="A626" s="1">
         <v>43192</v>
       </c>
       <c r="B626">
@@ -5431,7 +5433,7 @@
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627">
+      <c r="A627" s="1">
         <v>43193</v>
       </c>
       <c r="B627">
@@ -5439,7 +5441,7 @@
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628">
+      <c r="A628" s="1">
         <v>43194</v>
       </c>
       <c r="B628">
@@ -5447,7 +5449,7 @@
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629">
+      <c r="A629" s="1">
         <v>43195</v>
       </c>
       <c r="B629">
@@ -5455,7 +5457,7 @@
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630">
+      <c r="A630" s="1">
         <v>43196</v>
       </c>
       <c r="B630">
@@ -5463,7 +5465,7 @@
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631">
+      <c r="A631" s="1">
         <v>43197</v>
       </c>
       <c r="B631">
@@ -5471,7 +5473,7 @@
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632">
+      <c r="A632" s="1">
         <v>43198</v>
       </c>
       <c r="B632">
@@ -5479,7 +5481,7 @@
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633">
+      <c r="A633" s="1">
         <v>43199</v>
       </c>
       <c r="B633">
@@ -5487,7 +5489,7 @@
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634">
+      <c r="A634" s="1">
         <v>43200</v>
       </c>
       <c r="B634">
@@ -5495,7 +5497,7 @@
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635">
+      <c r="A635" s="1">
         <v>43201</v>
       </c>
       <c r="B635">
@@ -5503,7 +5505,7 @@
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636">
+      <c r="A636" s="1">
         <v>43202</v>
       </c>
       <c r="B636">
@@ -5511,7 +5513,7 @@
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637">
+      <c r="A637" s="1">
         <v>43203</v>
       </c>
       <c r="B637">
@@ -5519,7 +5521,7 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638">
+      <c r="A638" s="1">
         <v>43204</v>
       </c>
       <c r="B638">
@@ -5527,7 +5529,7 @@
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639">
+      <c r="A639" s="1">
         <v>43205</v>
       </c>
       <c r="B639">
@@ -5535,7 +5537,7 @@
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640">
+      <c r="A640" s="1">
         <v>43206</v>
       </c>
       <c r="B640">
@@ -5543,7 +5545,7 @@
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641">
+      <c r="A641" s="1">
         <v>43207</v>
       </c>
       <c r="B641">
@@ -5551,7 +5553,7 @@
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642">
+      <c r="A642" s="1">
         <v>43208</v>
       </c>
       <c r="B642">
@@ -5559,7 +5561,7 @@
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643">
+      <c r="A643" s="1">
         <v>43209</v>
       </c>
       <c r="B643">
@@ -5567,7 +5569,7 @@
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644">
+      <c r="A644" s="1">
         <v>43210</v>
       </c>
       <c r="B644">
@@ -5575,7 +5577,7 @@
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645">
+      <c r="A645" s="1">
         <v>43211</v>
       </c>
       <c r="B645">
@@ -5583,7 +5585,7 @@
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646">
+      <c r="A646" s="1">
         <v>43212</v>
       </c>
       <c r="B646">
@@ -5591,7 +5593,7 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647">
+      <c r="A647" s="1">
         <v>43213</v>
       </c>
       <c r="B647">
@@ -5599,7 +5601,7 @@
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648">
+      <c r="A648" s="1">
         <v>43214</v>
       </c>
       <c r="B648">
@@ -5607,7 +5609,7 @@
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649">
+      <c r="A649" s="1">
         <v>43215</v>
       </c>
       <c r="B649">
@@ -5615,7 +5617,7 @@
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650">
+      <c r="A650" s="1">
         <v>43216</v>
       </c>
       <c r="B650">
@@ -5623,7 +5625,7 @@
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651">
+      <c r="A651" s="1">
         <v>43217</v>
       </c>
       <c r="B651">
@@ -5631,7 +5633,7 @@
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652">
+      <c r="A652" s="1">
         <v>43218</v>
       </c>
       <c r="B652">
@@ -5639,7 +5641,7 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653">
+      <c r="A653" s="1">
         <v>43219</v>
       </c>
       <c r="B653">
@@ -5647,7 +5649,7 @@
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654">
+      <c r="A654" s="1">
         <v>43220</v>
       </c>
       <c r="B654">
@@ -5655,7 +5657,7 @@
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655">
+      <c r="A655" s="1">
         <v>43221</v>
       </c>
       <c r="B655">
@@ -5663,7 +5665,7 @@
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656">
+      <c r="A656" s="1">
         <v>43222</v>
       </c>
       <c r="B656">
@@ -5671,7 +5673,7 @@
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657">
+      <c r="A657" s="1">
         <v>43223</v>
       </c>
       <c r="B657">
@@ -5679,7 +5681,7 @@
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658">
+      <c r="A658" s="1">
         <v>43224</v>
       </c>
       <c r="B658">
@@ -5687,7 +5689,7 @@
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659">
+      <c r="A659" s="1">
         <v>43225</v>
       </c>
       <c r="B659">
@@ -5695,7 +5697,7 @@
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660">
+      <c r="A660" s="1">
         <v>43226</v>
       </c>
       <c r="B660">
@@ -5703,7 +5705,7 @@
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661">
+      <c r="A661" s="1">
         <v>43227</v>
       </c>
       <c r="B661">
@@ -5711,7 +5713,7 @@
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662">
+      <c r="A662" s="1">
         <v>43228</v>
       </c>
       <c r="B662">
@@ -5719,7 +5721,7 @@
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663">
+      <c r="A663" s="1">
         <v>43229</v>
       </c>
       <c r="B663">
@@ -5727,7 +5729,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664">
+      <c r="A664" s="1">
         <v>43230</v>
       </c>
       <c r="B664">
@@ -5735,7 +5737,7 @@
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665">
+      <c r="A665" s="1">
         <v>43231</v>
       </c>
       <c r="B665">
@@ -5743,7 +5745,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666">
+      <c r="A666" s="1">
         <v>43232</v>
       </c>
       <c r="B666">
@@ -5751,7 +5753,7 @@
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667">
+      <c r="A667" s="1">
         <v>43233</v>
       </c>
       <c r="B667">
@@ -5759,7 +5761,7 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668">
+      <c r="A668" s="1">
         <v>43234</v>
       </c>
       <c r="B668">
@@ -5767,7 +5769,7 @@
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669">
+      <c r="A669" s="1">
         <v>43235</v>
       </c>
       <c r="B669">
@@ -5775,7 +5777,7 @@
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670">
+      <c r="A670" s="1">
         <v>43236</v>
       </c>
       <c r="B670">
@@ -5783,7 +5785,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671">
+      <c r="A671" s="1">
         <v>43237</v>
       </c>
       <c r="B671">
@@ -5791,7 +5793,7 @@
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672">
+      <c r="A672" s="1">
         <v>43238</v>
       </c>
       <c r="B672">
@@ -5799,7 +5801,7 @@
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673">
+      <c r="A673" s="1">
         <v>43239</v>
       </c>
       <c r="B673">
@@ -5807,7 +5809,7 @@
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674">
+      <c r="A674" s="1">
         <v>43240</v>
       </c>
       <c r="B674">
@@ -5815,7 +5817,7 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675">
+      <c r="A675" s="1">
         <v>43241</v>
       </c>
       <c r="B675">
@@ -5823,7 +5825,7 @@
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676">
+      <c r="A676" s="1">
         <v>43242</v>
       </c>
       <c r="B676">
@@ -5831,7 +5833,7 @@
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677">
+      <c r="A677" s="1">
         <v>43243</v>
       </c>
       <c r="B677">
@@ -5839,7 +5841,7 @@
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678">
+      <c r="A678" s="1">
         <v>43244</v>
       </c>
       <c r="B678">
@@ -5847,7 +5849,7 @@
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679">
+      <c r="A679" s="1">
         <v>43245</v>
       </c>
       <c r="B679">
@@ -5855,7 +5857,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680">
+      <c r="A680" s="1">
         <v>43246</v>
       </c>
       <c r="B680">
@@ -5863,7 +5865,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681">
+      <c r="A681" s="1">
         <v>43247</v>
       </c>
       <c r="B681">
@@ -5871,7 +5873,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682">
+      <c r="A682" s="1">
         <v>43248</v>
       </c>
       <c r="B682">
@@ -5879,7 +5881,7 @@
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683">
+      <c r="A683" s="1">
         <v>43249</v>
       </c>
       <c r="B683">
@@ -5887,7 +5889,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684">
+      <c r="A684" s="1">
         <v>43250</v>
       </c>
       <c r="B684">
@@ -5895,7 +5897,7 @@
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685">
+      <c r="A685" s="1">
         <v>43251</v>
       </c>
       <c r="B685">
@@ -5903,7 +5905,7 @@
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686">
+      <c r="A686" s="1">
         <v>43252</v>
       </c>
       <c r="B686">
@@ -5911,7 +5913,7 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687">
+      <c r="A687" s="1">
         <v>43253</v>
       </c>
       <c r="B687">
@@ -5919,7 +5921,7 @@
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688">
+      <c r="A688" s="1">
         <v>43254</v>
       </c>
       <c r="B688">
@@ -5927,7 +5929,7 @@
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689">
+      <c r="A689" s="1">
         <v>43255</v>
       </c>
       <c r="B689">
@@ -5935,7 +5937,7 @@
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690">
+      <c r="A690" s="1">
         <v>43256</v>
       </c>
       <c r="B690">
@@ -5943,7 +5945,7 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691">
+      <c r="A691" s="1">
         <v>43257</v>
       </c>
       <c r="B691">
@@ -5951,7 +5953,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692">
+      <c r="A692" s="1">
         <v>43258</v>
       </c>
       <c r="B692">
@@ -5959,7 +5961,7 @@
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693">
+      <c r="A693" s="1">
         <v>43259</v>
       </c>
       <c r="B693">
@@ -5967,7 +5969,7 @@
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694">
+      <c r="A694" s="1">
         <v>43260</v>
       </c>
       <c r="B694">
@@ -5975,7 +5977,7 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695">
+      <c r="A695" s="1">
         <v>43261</v>
       </c>
       <c r="B695">
@@ -5983,7 +5985,7 @@
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696">
+      <c r="A696" s="1">
         <v>43262</v>
       </c>
       <c r="B696">
@@ -5991,7 +5993,7 @@
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697">
+      <c r="A697" s="1">
         <v>43263</v>
       </c>
       <c r="B697">
@@ -5999,7 +6001,7 @@
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698">
+      <c r="A698" s="1">
         <v>43264</v>
       </c>
       <c r="B698">
@@ -6007,7 +6009,7 @@
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699">
+      <c r="A699" s="1">
         <v>43265</v>
       </c>
       <c r="B699">
@@ -6015,7 +6017,7 @@
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700">
+      <c r="A700" s="1">
         <v>43266</v>
       </c>
       <c r="B700">
@@ -6023,7 +6025,7 @@
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701">
+      <c r="A701" s="1">
         <v>43267</v>
       </c>
       <c r="B701">
@@ -6031,7 +6033,7 @@
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702">
+      <c r="A702" s="1">
         <v>43268</v>
       </c>
       <c r="B702">
@@ -6039,7 +6041,7 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703">
+      <c r="A703" s="1">
         <v>43269</v>
       </c>
       <c r="B703">
@@ -6047,7 +6049,7 @@
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704">
+      <c r="A704" s="1">
         <v>43270</v>
       </c>
       <c r="B704">
@@ -6055,7 +6057,7 @@
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705">
+      <c r="A705" s="1">
         <v>43271</v>
       </c>
       <c r="B705">
@@ -6063,7 +6065,7 @@
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706">
+      <c r="A706" s="1">
         <v>43272</v>
       </c>
       <c r="B706">
@@ -6071,7 +6073,7 @@
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707">
+      <c r="A707" s="1">
         <v>43273</v>
       </c>
       <c r="B707">
@@ -6079,7 +6081,7 @@
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708">
+      <c r="A708" s="1">
         <v>43274</v>
       </c>
       <c r="B708">
@@ -6087,7 +6089,7 @@
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709">
+      <c r="A709" s="1">
         <v>43275</v>
       </c>
       <c r="B709">
@@ -6095,7 +6097,7 @@
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710">
+      <c r="A710" s="1">
         <v>43276</v>
       </c>
       <c r="B710">
@@ -6103,7 +6105,7 @@
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711">
+      <c r="A711" s="1">
         <v>43277</v>
       </c>
       <c r="B711">
@@ -6111,7 +6113,7 @@
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712">
+      <c r="A712" s="1">
         <v>43278</v>
       </c>
       <c r="B712">
@@ -6119,7 +6121,7 @@
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713">
+      <c r="A713" s="1">
         <v>43279</v>
       </c>
       <c r="B713">
@@ -6127,7 +6129,7 @@
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714">
+      <c r="A714" s="1">
         <v>43280</v>
       </c>
       <c r="B714">
@@ -6135,7 +6137,7 @@
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715">
+      <c r="A715" s="1">
         <v>43281</v>
       </c>
       <c r="B715">
@@ -6143,7 +6145,7 @@
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716">
+      <c r="A716" s="1">
         <v>43282</v>
       </c>
       <c r="B716">
@@ -6151,7 +6153,7 @@
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717">
+      <c r="A717" s="1">
         <v>43283</v>
       </c>
       <c r="B717">
@@ -6159,7 +6161,7 @@
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718">
+      <c r="A718" s="1">
         <v>43284</v>
       </c>
       <c r="B718">
@@ -6167,7 +6169,7 @@
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719">
+      <c r="A719" s="1">
         <v>43285</v>
       </c>
       <c r="B719">
@@ -6175,7 +6177,7 @@
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720">
+      <c r="A720" s="1">
         <v>43286</v>
       </c>
       <c r="B720">
@@ -6183,7 +6185,7 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721">
+      <c r="A721" s="1">
         <v>43287</v>
       </c>
       <c r="B721">
@@ -6191,7 +6193,7 @@
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722">
+      <c r="A722" s="1">
         <v>43288</v>
       </c>
       <c r="B722">
@@ -6199,7 +6201,7 @@
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723">
+      <c r="A723" s="1">
         <v>43289</v>
       </c>
       <c r="B723">
@@ -6207,7 +6209,7 @@
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724">
+      <c r="A724" s="1">
         <v>43290</v>
       </c>
       <c r="B724">
@@ -6215,7 +6217,7 @@
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725">
+      <c r="A725" s="1">
         <v>43291</v>
       </c>
       <c r="B725">
@@ -6223,7 +6225,7 @@
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726">
+      <c r="A726" s="1">
         <v>43292</v>
       </c>
       <c r="B726">
@@ -6231,7 +6233,7 @@
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727">
+      <c r="A727" s="1">
         <v>43293</v>
       </c>
       <c r="B727">
@@ -6239,7 +6241,7 @@
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728">
+      <c r="A728" s="1">
         <v>43294</v>
       </c>
       <c r="B728">
@@ -6247,7 +6249,7 @@
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729">
+      <c r="A729" s="1">
         <v>43295</v>
       </c>
       <c r="B729">
@@ -6255,7 +6257,7 @@
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730">
+      <c r="A730" s="1">
         <v>43296</v>
       </c>
       <c r="B730">
@@ -6263,7 +6265,7 @@
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731">
+      <c r="A731" s="1">
         <v>43297</v>
       </c>
       <c r="B731">
@@ -6271,7 +6273,7 @@
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732">
+      <c r="A732" s="1">
         <v>43298</v>
       </c>
       <c r="B732">
@@ -6279,7 +6281,7 @@
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733">
+      <c r="A733" s="1">
         <v>43299</v>
       </c>
       <c r="B733">
@@ -6287,7 +6289,7 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734">
+      <c r="A734" s="1">
         <v>43300</v>
       </c>
       <c r="B734">
@@ -6295,7 +6297,7 @@
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735">
+      <c r="A735" s="1">
         <v>43301</v>
       </c>
       <c r="B735">
@@ -6303,7 +6305,7 @@
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736">
+      <c r="A736" s="1">
         <v>43302</v>
       </c>
       <c r="B736">
@@ -6311,7 +6313,7 @@
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737">
+      <c r="A737" s="1">
         <v>43303</v>
       </c>
       <c r="B737">
@@ -6319,7 +6321,7 @@
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738">
+      <c r="A738" s="1">
         <v>43304</v>
       </c>
       <c r="B738">
@@ -6327,7 +6329,7 @@
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739">
+      <c r="A739" s="1">
         <v>43305</v>
       </c>
       <c r="B739">
@@ -6335,7 +6337,7 @@
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740">
+      <c r="A740" s="1">
         <v>43306</v>
       </c>
       <c r="B740">
@@ -6343,7 +6345,7 @@
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741">
+      <c r="A741" s="1">
         <v>43307</v>
       </c>
       <c r="B741">
@@ -6351,7 +6353,7 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742">
+      <c r="A742" s="1">
         <v>43308</v>
       </c>
       <c r="B742">
@@ -6359,7 +6361,7 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743">
+      <c r="A743" s="1">
         <v>43309</v>
       </c>
       <c r="B743">
@@ -6367,7 +6369,7 @@
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744">
+      <c r="A744" s="1">
         <v>43310</v>
       </c>
       <c r="B744">
@@ -6375,7 +6377,7 @@
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745">
+      <c r="A745" s="1">
         <v>43311</v>
       </c>
       <c r="B745">
@@ -6383,7 +6385,7 @@
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746">
+      <c r="A746" s="1">
         <v>43312</v>
       </c>
       <c r="B746">
@@ -6391,7 +6393,7 @@
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747">
+      <c r="A747" s="1">
         <v>43313</v>
       </c>
       <c r="B747">
@@ -6399,7 +6401,7 @@
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748">
+      <c r="A748" s="1">
         <v>43314</v>
       </c>
       <c r="B748">
@@ -6407,7 +6409,7 @@
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749">
+      <c r="A749" s="1">
         <v>43315</v>
       </c>
       <c r="B749">
@@ -6415,7 +6417,7 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750">
+      <c r="A750" s="1">
         <v>43316</v>
       </c>
       <c r="B750">
@@ -6423,7 +6425,7 @@
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751">
+      <c r="A751" s="1">
         <v>43317</v>
       </c>
       <c r="B751">
@@ -6431,7 +6433,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752">
+      <c r="A752" s="1">
         <v>43318</v>
       </c>
       <c r="B752">
@@ -6439,7 +6441,7 @@
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753">
+      <c r="A753" s="1">
         <v>43319</v>
       </c>
       <c r="B753">
@@ -6447,7 +6449,7 @@
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754">
+      <c r="A754" s="1">
         <v>43320</v>
       </c>
       <c r="B754">
@@ -6455,7 +6457,7 @@
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755">
+      <c r="A755" s="1">
         <v>43321</v>
       </c>
       <c r="B755">
@@ -6463,7 +6465,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756">
+      <c r="A756" s="1">
         <v>43322</v>
       </c>
       <c r="B756">
@@ -6471,7 +6473,7 @@
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757">
+      <c r="A757" s="1">
         <v>43323</v>
       </c>
       <c r="B757">
@@ -6479,7 +6481,7 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758">
+      <c r="A758" s="1">
         <v>43324</v>
       </c>
       <c r="B758">
@@ -6487,7 +6489,7 @@
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759">
+      <c r="A759" s="1">
         <v>43325</v>
       </c>
       <c r="B759">
@@ -6495,7 +6497,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760">
+      <c r="A760" s="1">
         <v>43326</v>
       </c>
       <c r="B760">
@@ -6503,7 +6505,7 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761">
+      <c r="A761" s="1">
         <v>43327</v>
       </c>
       <c r="B761">
@@ -6511,7 +6513,7 @@
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762">
+      <c r="A762" s="1">
         <v>43328</v>
       </c>
       <c r="B762">
@@ -6519,7 +6521,7 @@
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763">
+      <c r="A763" s="1">
         <v>43329</v>
       </c>
       <c r="B763">
@@ -6527,7 +6529,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764">
+      <c r="A764" s="1">
         <v>43330</v>
       </c>
       <c r="B764">
@@ -6535,7 +6537,7 @@
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765">
+      <c r="A765" s="1">
         <v>43331</v>
       </c>
       <c r="B765">
@@ -6543,7 +6545,7 @@
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766">
+      <c r="A766" s="1">
         <v>43332</v>
       </c>
       <c r="B766">
@@ -6551,7 +6553,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767">
+      <c r="A767" s="1">
         <v>43333</v>
       </c>
       <c r="B767">
@@ -6559,7 +6561,7 @@
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768">
+      <c r="A768" s="1">
         <v>43334</v>
       </c>
       <c r="B768">
@@ -6567,7 +6569,7 @@
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769">
+      <c r="A769" s="1">
         <v>43335</v>
       </c>
       <c r="B769">
@@ -6575,7 +6577,7 @@
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770">
+      <c r="A770" s="1">
         <v>43336</v>
       </c>
       <c r="B770">
@@ -6583,7 +6585,7 @@
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771">
+      <c r="A771" s="1">
         <v>43337</v>
       </c>
       <c r="B771">
@@ -6591,7 +6593,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772">
+      <c r="A772" s="1">
         <v>43338</v>
       </c>
       <c r="B772">
@@ -6599,7 +6601,7 @@
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773">
+      <c r="A773" s="1">
         <v>43339</v>
       </c>
       <c r="B773">
@@ -6607,7 +6609,7 @@
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774">
+      <c r="A774" s="1">
         <v>43340</v>
       </c>
       <c r="B774">
@@ -6615,7 +6617,7 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775">
+      <c r="A775" s="1">
         <v>43341</v>
       </c>
       <c r="B775">
@@ -6623,7 +6625,7 @@
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776">
+      <c r="A776" s="1">
         <v>43342</v>
       </c>
       <c r="B776">
@@ -6631,7 +6633,7 @@
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777">
+      <c r="A777" s="1">
         <v>43343</v>
       </c>
       <c r="B777">
@@ -6639,7 +6641,7 @@
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778">
+      <c r="A778" s="1">
         <v>43344</v>
       </c>
       <c r="B778">
@@ -6647,7 +6649,7 @@
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779">
+      <c r="A779" s="1">
         <v>43345</v>
       </c>
       <c r="B779">
@@ -6655,7 +6657,7 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780">
+      <c r="A780" s="1">
         <v>43346</v>
       </c>
       <c r="B780">
@@ -6663,7 +6665,7 @@
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781">
+      <c r="A781" s="1">
         <v>43347</v>
       </c>
       <c r="B781">
@@ -6671,7 +6673,7 @@
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782">
+      <c r="A782" s="1">
         <v>43348</v>
       </c>
       <c r="B782">
@@ -6679,7 +6681,7 @@
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783">
+      <c r="A783" s="1">
         <v>43349</v>
       </c>
       <c r="B783">
@@ -6687,7 +6689,7 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784">
+      <c r="A784" s="1">
         <v>43350</v>
       </c>
       <c r="B784">
@@ -6695,7 +6697,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785">
+      <c r="A785" s="1">
         <v>43351</v>
       </c>
       <c r="B785">
@@ -6703,7 +6705,7 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786">
+      <c r="A786" s="1">
         <v>43352</v>
       </c>
       <c r="B786">
@@ -6711,7 +6713,7 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787">
+      <c r="A787" s="1">
         <v>43353</v>
       </c>
       <c r="B787">
@@ -6719,7 +6721,7 @@
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788">
+      <c r="A788" s="1">
         <v>43354</v>
       </c>
       <c r="B788">
@@ -6727,7 +6729,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789">
+      <c r="A789" s="1">
         <v>43355</v>
       </c>
       <c r="B789">
@@ -6735,7 +6737,7 @@
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790">
+      <c r="A790" s="1">
         <v>43356</v>
       </c>
       <c r="B790">
@@ -6743,7 +6745,7 @@
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791">
+      <c r="A791" s="1">
         <v>43357</v>
       </c>
       <c r="B791">
@@ -6751,7 +6753,7 @@
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792">
+      <c r="A792" s="1">
         <v>43358</v>
       </c>
       <c r="B792">
@@ -6759,7 +6761,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793">
+      <c r="A793" s="1">
         <v>43359</v>
       </c>
       <c r="B793">
@@ -6767,7 +6769,7 @@
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794">
+      <c r="A794" s="1">
         <v>43360</v>
       </c>
       <c r="B794">
@@ -6775,7 +6777,7 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795">
+      <c r="A795" s="1">
         <v>43361</v>
       </c>
       <c r="B795">
@@ -6783,7 +6785,7 @@
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796">
+      <c r="A796" s="1">
         <v>43362</v>
       </c>
       <c r="B796">
@@ -6791,7 +6793,7 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797">
+      <c r="A797" s="1">
         <v>43363</v>
       </c>
       <c r="B797">
@@ -6799,7 +6801,7 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798">
+      <c r="A798" s="1">
         <v>43364</v>
       </c>
       <c r="B798">
@@ -6807,7 +6809,7 @@
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799">
+      <c r="A799" s="1">
         <v>43365</v>
       </c>
       <c r="B799">
@@ -6815,7 +6817,7 @@
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800">
+      <c r="A800" s="1">
         <v>43366</v>
       </c>
       <c r="B800">
@@ -6823,7 +6825,7 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801">
+      <c r="A801" s="1">
         <v>43367</v>
       </c>
       <c r="B801">
@@ -6831,7 +6833,7 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802">
+      <c r="A802" s="1">
         <v>43368</v>
       </c>
       <c r="B802">
@@ -6839,7 +6841,7 @@
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803">
+      <c r="A803" s="1">
         <v>43369</v>
       </c>
       <c r="B803">
@@ -6847,7 +6849,7 @@
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804">
+      <c r="A804" s="1">
         <v>43370</v>
       </c>
       <c r="B804">
@@ -6855,7 +6857,7 @@
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805">
+      <c r="A805" s="1">
         <v>43371</v>
       </c>
       <c r="B805">
@@ -6863,7 +6865,7 @@
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806">
+      <c r="A806" s="1">
         <v>43372</v>
       </c>
       <c r="B806">
@@ -6871,7 +6873,7 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807">
+      <c r="A807" s="1">
         <v>43373</v>
       </c>
       <c r="B807">
@@ -6879,7 +6881,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808">
+      <c r="A808" s="1">
         <v>43374</v>
       </c>
       <c r="B808">
@@ -6887,7 +6889,7 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809">
+      <c r="A809" s="1">
         <v>43375</v>
       </c>
       <c r="B809">
@@ -6895,7 +6897,7 @@
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810">
+      <c r="A810" s="1">
         <v>43376</v>
       </c>
       <c r="B810">
@@ -6903,7 +6905,7 @@
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811">
+      <c r="A811" s="1">
         <v>43377</v>
       </c>
       <c r="B811">
@@ -6911,7 +6913,7 @@
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812">
+      <c r="A812" s="1">
         <v>43378</v>
       </c>
       <c r="B812">
@@ -6919,7 +6921,7 @@
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813">
+      <c r="A813" s="1">
         <v>43379</v>
       </c>
       <c r="B813">
@@ -6927,7 +6929,7 @@
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814">
+      <c r="A814" s="1">
         <v>43380</v>
       </c>
       <c r="B814">
@@ -6935,7 +6937,7 @@
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815">
+      <c r="A815" s="1">
         <v>43381</v>
       </c>
       <c r="B815">
@@ -6943,7 +6945,7 @@
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816">
+      <c r="A816" s="1">
         <v>43382</v>
       </c>
       <c r="B816">
@@ -6951,7 +6953,7 @@
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817">
+      <c r="A817" s="1">
         <v>43383</v>
       </c>
       <c r="B817">
@@ -6959,7 +6961,7 @@
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818">
+      <c r="A818" s="1">
         <v>43384</v>
       </c>
       <c r="B818">
@@ -6967,7 +6969,7 @@
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819">
+      <c r="A819" s="1">
         <v>43385</v>
       </c>
       <c r="B819">
@@ -6975,7 +6977,7 @@
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820">
+      <c r="A820" s="1">
         <v>43386</v>
       </c>
       <c r="B820">
@@ -6983,7 +6985,7 @@
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821">
+      <c r="A821" s="1">
         <v>43387</v>
       </c>
       <c r="B821">
@@ -6991,7 +6993,7 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822">
+      <c r="A822" s="1">
         <v>43388</v>
       </c>
       <c r="B822">
@@ -6999,7 +7001,7 @@
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823">
+      <c r="A823" s="1">
         <v>43389</v>
       </c>
       <c r="B823">
@@ -7007,7 +7009,7 @@
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824">
+      <c r="A824" s="1">
         <v>43390</v>
       </c>
       <c r="B824">
@@ -7015,7 +7017,7 @@
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825">
+      <c r="A825" s="1">
         <v>43391</v>
       </c>
       <c r="B825">
@@ -7023,7 +7025,7 @@
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826">
+      <c r="A826" s="1">
         <v>43392</v>
       </c>
       <c r="B826">
@@ -7031,7 +7033,7 @@
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827">
+      <c r="A827" s="1">
         <v>43393</v>
       </c>
       <c r="B827">
@@ -7039,7 +7041,7 @@
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828">
+      <c r="A828" s="1">
         <v>43394</v>
       </c>
       <c r="B828">
@@ -7047,7 +7049,7 @@
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829">
+      <c r="A829" s="1">
         <v>43395</v>
       </c>
       <c r="B829">
@@ -7055,7 +7057,7 @@
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830">
+      <c r="A830" s="1">
         <v>43396</v>
       </c>
       <c r="B830">
@@ -7063,7 +7065,7 @@
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A831">
+      <c r="A831" s="1">
         <v>43397</v>
       </c>
       <c r="B831">
@@ -7071,7 +7073,7 @@
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A832">
+      <c r="A832" s="1">
         <v>43398</v>
       </c>
       <c r="B832">
@@ -7079,7 +7081,7 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833">
+      <c r="A833" s="1">
         <v>43399</v>
       </c>
       <c r="B833">
@@ -7087,7 +7089,7 @@
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834">
+      <c r="A834" s="1">
         <v>43400</v>
       </c>
       <c r="B834">
@@ -7095,7 +7097,7 @@
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835">
+      <c r="A835" s="1">
         <v>43401</v>
       </c>
       <c r="B835">
@@ -7103,7 +7105,7 @@
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836">
+      <c r="A836" s="1">
         <v>43402</v>
       </c>
       <c r="B836">
@@ -7111,7 +7113,7 @@
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837">
+      <c r="A837" s="1">
         <v>43403</v>
       </c>
       <c r="B837">
@@ -7119,7 +7121,7 @@
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838">
+      <c r="A838" s="1">
         <v>43404</v>
       </c>
       <c r="B838">
@@ -7127,7 +7129,7 @@
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839">
+      <c r="A839" s="1">
         <v>43405</v>
       </c>
       <c r="B839">
@@ -7135,7 +7137,7 @@
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840">
+      <c r="A840" s="1">
         <v>43406</v>
       </c>
       <c r="B840">
@@ -7143,7 +7145,7 @@
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841">
+      <c r="A841" s="1">
         <v>43407</v>
       </c>
       <c r="B841">
@@ -7151,7 +7153,7 @@
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842">
+      <c r="A842" s="1">
         <v>43408</v>
       </c>
       <c r="B842">
@@ -7159,7 +7161,7 @@
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843">
+      <c r="A843" s="1">
         <v>43409</v>
       </c>
       <c r="B843">
@@ -7167,7 +7169,7 @@
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844">
+      <c r="A844" s="1">
         <v>43410</v>
       </c>
       <c r="B844">
@@ -7175,7 +7177,7 @@
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845">
+      <c r="A845" s="1">
         <v>43411</v>
       </c>
       <c r="B845">
@@ -7183,7 +7185,7 @@
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846">
+      <c r="A846" s="1">
         <v>43412</v>
       </c>
       <c r="B846">
@@ -7191,7 +7193,7 @@
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847">
+      <c r="A847" s="1">
         <v>43413</v>
       </c>
       <c r="B847">
@@ -7199,1247 +7201,1247 @@
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848">
+      <c r="A848" s="1">
         <v>43414</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849">
+      <c r="A849" s="1">
         <v>43415</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850">
+      <c r="A850" s="1">
         <v>43416</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851">
+      <c r="A851" s="1">
         <v>43417</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852">
+      <c r="A852" s="1">
         <v>43418</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853">
+      <c r="A853" s="1">
         <v>43419</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854">
+      <c r="A854" s="1">
         <v>43420</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855">
+      <c r="A855" s="1">
         <v>43421</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856">
+      <c r="A856" s="1">
         <v>43422</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857">
+      <c r="A857" s="1">
         <v>43423</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858">
+      <c r="A858" s="1">
         <v>43424</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859">
+      <c r="A859" s="1">
         <v>43425</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860">
+      <c r="A860" s="1">
         <v>43426</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861">
+      <c r="A861" s="1">
         <v>43427</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862">
+      <c r="A862" s="1">
         <v>43428</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863">
+      <c r="A863" s="1">
         <v>43429</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864">
+      <c r="A864" s="1">
         <v>43430</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865">
+      <c r="A865" s="1">
         <v>43431</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866">
+      <c r="A866" s="1">
         <v>43432</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867">
+      <c r="A867" s="1">
         <v>43433</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868">
+      <c r="A868" s="1">
         <v>43434</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869">
+      <c r="A869" s="1">
         <v>43435</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870">
+      <c r="A870" s="1">
         <v>43436</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871">
+      <c r="A871" s="1">
         <v>43437</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872">
+      <c r="A872" s="1">
         <v>43438</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873">
+      <c r="A873" s="1">
         <v>43439</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874">
+      <c r="A874" s="1">
         <v>43440</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875">
+      <c r="A875" s="1">
         <v>43441</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876">
+      <c r="A876" s="1">
         <v>43442</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877">
+      <c r="A877" s="1">
         <v>43443</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878">
+      <c r="A878" s="1">
         <v>43444</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879">
+      <c r="A879" s="1">
         <v>43445</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880">
+      <c r="A880" s="1">
         <v>43446</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881">
+      <c r="A881" s="1">
         <v>43447</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882">
+      <c r="A882" s="1">
         <v>43448</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883">
+      <c r="A883" s="1">
         <v>43449</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884">
+      <c r="A884" s="1">
         <v>43450</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885">
+      <c r="A885" s="1">
         <v>43451</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886">
+      <c r="A886" s="1">
         <v>43452</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887">
+      <c r="A887" s="1">
         <v>43453</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888">
+      <c r="A888" s="1">
         <v>43454</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889">
+      <c r="A889" s="1">
         <v>43455</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890">
+      <c r="A890" s="1">
         <v>43456</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891">
+      <c r="A891" s="1">
         <v>43457</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892">
+      <c r="A892" s="1">
         <v>43458</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893">
+      <c r="A893" s="1">
         <v>43459</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894">
+      <c r="A894" s="1">
         <v>43460</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895">
+      <c r="A895" s="1">
         <v>43461</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896">
+      <c r="A896" s="1">
         <v>43462</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897">
+      <c r="A897" s="1">
         <v>43463</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898">
+      <c r="A898" s="1">
         <v>43464</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899">
+      <c r="A899" s="1">
         <v>43465</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900">
+      <c r="A900" s="1">
         <v>43466</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901">
+      <c r="A901" s="1">
         <v>43467</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902">
+      <c r="A902" s="1">
         <v>43468</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903">
+      <c r="A903" s="1">
         <v>43469</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904">
+      <c r="A904" s="1">
         <v>43470</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905">
+      <c r="A905" s="1">
         <v>43471</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906">
+      <c r="A906" s="1">
         <v>43472</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907">
+      <c r="A907" s="1">
         <v>43473</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908">
+      <c r="A908" s="1">
         <v>43474</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909">
+      <c r="A909" s="1">
         <v>43475</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910">
+      <c r="A910" s="1">
         <v>43476</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911">
+      <c r="A911" s="1">
         <v>43477</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912">
+      <c r="A912" s="1">
         <v>43478</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913">
+      <c r="A913" s="1">
         <v>43479</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914">
+      <c r="A914" s="1">
         <v>43480</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915">
+      <c r="A915" s="1">
         <v>43481</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916">
+      <c r="A916" s="1">
         <v>43482</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917">
+      <c r="A917" s="1">
         <v>43483</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918">
+      <c r="A918" s="1">
         <v>43484</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919">
+      <c r="A919" s="1">
         <v>43485</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920">
+      <c r="A920" s="1">
         <v>43486</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921">
+      <c r="A921" s="1">
         <v>43487</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922">
+      <c r="A922" s="1">
         <v>43488</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923">
+      <c r="A923" s="1">
         <v>43489</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924">
+      <c r="A924" s="1">
         <v>43490</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925">
+      <c r="A925" s="1">
         <v>43491</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926">
+      <c r="A926" s="1">
         <v>43492</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927">
+      <c r="A927" s="1">
         <v>43493</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928">
+      <c r="A928" s="1">
         <v>43494</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929">
+      <c r="A929" s="1">
         <v>43495</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930">
+      <c r="A930" s="1">
         <v>43496</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931">
+      <c r="A931" s="1">
         <v>43497</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932">
+      <c r="A932" s="1">
         <v>43498</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933">
+      <c r="A933" s="1">
         <v>43499</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934">
+      <c r="A934" s="1">
         <v>43500</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935">
+      <c r="A935" s="1">
         <v>43501</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936">
+      <c r="A936" s="1">
         <v>43502</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937">
+      <c r="A937" s="1">
         <v>43503</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938">
+      <c r="A938" s="1">
         <v>43504</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939">
+      <c r="A939" s="1">
         <v>43505</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940">
+      <c r="A940" s="1">
         <v>43506</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941">
+      <c r="A941" s="1">
         <v>43507</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942">
+      <c r="A942" s="1">
         <v>43508</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943">
+      <c r="A943" s="1">
         <v>43509</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944">
+      <c r="A944" s="1">
         <v>43510</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945">
+      <c r="A945" s="1">
         <v>43511</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946">
+      <c r="A946" s="1">
         <v>43512</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947">
+      <c r="A947" s="1">
         <v>43513</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948">
+      <c r="A948" s="1">
         <v>43514</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949">
+      <c r="A949" s="1">
         <v>43515</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950">
+      <c r="A950" s="1">
         <v>43516</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951">
+      <c r="A951" s="1">
         <v>43517</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952">
+      <c r="A952" s="1">
         <v>43518</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953">
+      <c r="A953" s="1">
         <v>43519</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954">
+      <c r="A954" s="1">
         <v>43520</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955">
+      <c r="A955" s="1">
         <v>43521</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956">
+      <c r="A956" s="1">
         <v>43522</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957">
+      <c r="A957" s="1">
         <v>43523</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958">
+      <c r="A958" s="1">
         <v>43524</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959">
+      <c r="A959" s="1">
         <v>43525</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960">
+      <c r="A960" s="1">
         <v>43526</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961">
+      <c r="A961" s="1">
         <v>43527</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962">
+      <c r="A962" s="1">
         <v>43528</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963">
+      <c r="A963" s="1">
         <v>43529</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964">
+      <c r="A964" s="1">
         <v>43530</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965">
+      <c r="A965" s="1">
         <v>43531</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966">
+      <c r="A966" s="1">
         <v>43532</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967">
+      <c r="A967" s="1">
         <v>43533</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968">
+      <c r="A968" s="1">
         <v>43534</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969">
+      <c r="A969" s="1">
         <v>43535</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970">
+      <c r="A970" s="1">
         <v>43536</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971">
+      <c r="A971" s="1">
         <v>43537</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972">
+      <c r="A972" s="1">
         <v>43538</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973">
+      <c r="A973" s="1">
         <v>43539</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974">
+      <c r="A974" s="1">
         <v>43540</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975">
+      <c r="A975" s="1">
         <v>43541</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976">
+      <c r="A976" s="1">
         <v>43542</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977">
+      <c r="A977" s="1">
         <v>43543</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978">
+      <c r="A978" s="1">
         <v>43544</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979">
+      <c r="A979" s="1">
         <v>43545</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980">
+      <c r="A980" s="1">
         <v>43546</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981">
+      <c r="A981" s="1">
         <v>43547</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982">
+      <c r="A982" s="1">
         <v>43548</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983">
+      <c r="A983" s="1">
         <v>43549</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984">
+      <c r="A984" s="1">
         <v>43550</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985">
+      <c r="A985" s="1">
         <v>43551</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986">
+      <c r="A986" s="1">
         <v>43552</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987">
+      <c r="A987" s="1">
         <v>43553</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988">
+      <c r="A988" s="1">
         <v>43554</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989">
+      <c r="A989" s="1">
         <v>43555</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990">
+      <c r="A990" s="1">
         <v>43556</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991">
+      <c r="A991" s="1">
         <v>43557</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992">
+      <c r="A992" s="1">
         <v>43558</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993">
+      <c r="A993" s="1">
         <v>43559</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994">
+      <c r="A994" s="1">
         <v>43560</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995">
+      <c r="A995" s="1">
         <v>43561</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996">
+      <c r="A996" s="1">
         <v>43562</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997">
+      <c r="A997" s="1">
         <v>43563</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998">
+      <c r="A998" s="1">
         <v>43564</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999">
+      <c r="A999" s="1">
         <v>43565</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000">
+      <c r="A1000" s="1">
         <v>43566</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001">
+      <c r="A1001" s="1">
         <v>43567</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002">
+      <c r="A1002" s="1">
         <v>43568</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003">
+      <c r="A1003" s="1">
         <v>43569</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004">
+      <c r="A1004" s="1">
         <v>43570</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005">
+      <c r="A1005" s="1">
         <v>43571</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006">
+      <c r="A1006" s="1">
         <v>43572</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007">
+      <c r="A1007" s="1">
         <v>43573</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008">
+      <c r="A1008" s="1">
         <v>43574</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009">
+      <c r="A1009" s="1">
         <v>43575</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010">
+      <c r="A1010" s="1">
         <v>43576</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011">
+      <c r="A1011" s="1">
         <v>43577</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012">
+      <c r="A1012" s="1">
         <v>43578</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013">
+      <c r="A1013" s="1">
         <v>43579</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014">
+      <c r="A1014" s="1">
         <v>43580</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015">
+      <c r="A1015" s="1">
         <v>43581</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016">
+      <c r="A1016" s="1">
         <v>43582</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017">
+      <c r="A1017" s="1">
         <v>43583</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018">
+      <c r="A1018" s="1">
         <v>43584</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019">
+      <c r="A1019" s="1">
         <v>43585</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020">
+      <c r="A1020" s="1">
         <v>43586</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021">
+      <c r="A1021" s="1">
         <v>43587</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022">
+      <c r="A1022" s="1">
         <v>43588</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023">
+      <c r="A1023" s="1">
         <v>43589</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024">
+      <c r="A1024" s="1">
         <v>43590</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025">
+      <c r="A1025" s="1">
         <v>43591</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026">
+      <c r="A1026" s="1">
         <v>43592</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027">
+      <c r="A1027" s="1">
         <v>43593</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028">
+      <c r="A1028" s="1">
         <v>43594</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029">
+      <c r="A1029" s="1">
         <v>43595</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030">
+      <c r="A1030" s="1">
         <v>43596</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031">
+      <c r="A1031" s="1">
         <v>43597</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032">
+      <c r="A1032" s="1">
         <v>43598</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033">
+      <c r="A1033" s="1">
         <v>43599</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034">
+      <c r="A1034" s="1">
         <v>43600</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035">
+      <c r="A1035" s="1">
         <v>43601</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036">
+      <c r="A1036" s="1">
         <v>43602</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037">
+      <c r="A1037" s="1">
         <v>43603</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038">
+      <c r="A1038" s="1">
         <v>43604</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039">
+      <c r="A1039" s="1">
         <v>43605</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040">
+      <c r="A1040" s="1">
         <v>43606</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041">
+      <c r="A1041" s="1">
         <v>43607</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042">
+      <c r="A1042" s="1">
         <v>43608</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043">
+      <c r="A1043" s="1">
         <v>43609</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044">
+      <c r="A1044" s="1">
         <v>43610</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045">
+      <c r="A1045" s="1">
         <v>43611</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046">
+      <c r="A1046" s="1">
         <v>43612</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047">
+      <c r="A1047" s="1">
         <v>43613</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048">
+      <c r="A1048" s="1">
         <v>43614</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049">
+      <c r="A1049" s="1">
         <v>43615</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050">
+      <c r="A1050" s="1">
         <v>43616</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051">
+      <c r="A1051" s="1">
         <v>43617</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052">
+      <c r="A1052" s="1">
         <v>43618</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053">
+      <c r="A1053" s="1">
         <v>43619</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054">
+      <c r="A1054" s="1">
         <v>43620</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055">
+      <c r="A1055" s="1">
         <v>43621</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056">
+      <c r="A1056" s="1">
         <v>43622</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057">
+      <c r="A1057" s="1">
         <v>43623</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058">
+      <c r="A1058" s="1">
         <v>43624</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059">
+      <c r="A1059" s="1">
         <v>43625</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060">
+      <c r="A1060" s="1">
         <v>43626</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061">
+      <c r="A1061" s="1">
         <v>43627</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062">
+      <c r="A1062" s="1">
         <v>43628</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063">
+      <c r="A1063" s="1">
         <v>43629</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064">
+      <c r="A1064" s="1">
         <v>43630</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065">
+      <c r="A1065" s="1">
         <v>43631</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066">
+      <c r="A1066" s="1">
         <v>43632</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067">
+      <c r="A1067" s="1">
         <v>43633</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068">
+      <c r="A1068" s="1">
         <v>43634</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069">
+      <c r="A1069" s="1">
         <v>43635</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070">
+      <c r="A1070" s="1">
         <v>43636</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071">
+      <c r="A1071" s="1">
         <v>43637</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072">
+      <c r="A1072" s="1">
         <v>43638</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073">
+      <c r="A1073" s="1">
         <v>43639</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074">
+      <c r="A1074" s="1">
         <v>43640</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075">
+      <c r="A1075" s="1">
         <v>43641</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076">
+      <c r="A1076" s="1">
         <v>43642</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077">
+      <c r="A1077" s="1">
         <v>43643</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078">
+      <c r="A1078" s="1">
         <v>43644</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079">
+      <c r="A1079" s="1">
         <v>43645</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080">
+      <c r="A1080" s="1">
         <v>43646</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081">
+      <c r="A1081" s="1">
         <v>43647</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082">
+      <c r="A1082" s="1">
         <v>43648</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083">
+      <c r="A1083" s="1">
         <v>43649</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084">
+      <c r="A1084" s="1">
         <v>43650</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085">
+      <c r="A1085" s="1">
         <v>43651</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086">
+      <c r="A1086" s="1">
         <v>43652</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087">
+      <c r="A1087" s="1">
         <v>43653</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088">
+      <c r="A1088" s="1">
         <v>43654</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089">
+      <c r="A1089" s="1">
         <v>43655</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090">
+      <c r="A1090" s="1">
         <v>43656</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091">
+      <c r="A1091" s="1">
         <v>43657</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092">
+      <c r="A1092" s="1">
         <v>43658</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093">
+      <c r="A1093" s="1">
         <v>43659</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094">
+      <c r="A1094" s="1">
         <v>43660</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095">
+      <c r="A1095" s="1">
         <v>43661</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096">
+      <c r="A1096" s="1">
         <v>43662</v>
       </c>
     </row>
@@ -8450,5 +8452,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>